--- a/ArtigoKrigingVsg/benchmark/VirtualSamples.xlsx
+++ b/ArtigoKrigingVsg/benchmark/VirtualSamples.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,10 +460,10 @@
         <v>0.0342</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04293</v>
+        <v>0.2035</v>
       </c>
       <c r="C2" t="n">
-        <v>2.307578663678429</v>
+        <v>2.370563597588472</v>
       </c>
     </row>
     <row r="3">
@@ -471,10 +471,10 @@
         <v>0.0342</v>
       </c>
       <c r="B3" t="n">
-        <v>0.221875</v>
+        <v>0.3782</v>
       </c>
       <c r="C3" t="n">
-        <v>2.382077713064248</v>
+        <v>2.664261693034507</v>
       </c>
     </row>
     <row r="4">
@@ -482,21 +482,21 @@
         <v>0.0342</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3782</v>
+        <v>0.5233</v>
       </c>
       <c r="C4" t="n">
-        <v>2.664261693034507</v>
+        <v>3.084300978964361</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0342</v>
+        <v>0.08790000000000001</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.0245</v>
       </c>
       <c r="C5" t="n">
-        <v>2.280216592331715</v>
+        <v>2.314349564993261</v>
       </c>
     </row>
     <row r="6">
@@ -504,10 +504,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.2035</v>
       </c>
       <c r="C6" t="n">
-        <v>2.287694881510026</v>
+        <v>2.415229477182888</v>
       </c>
     </row>
     <row r="7">
@@ -515,10 +515,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C7" t="n">
-        <v>2.334918145451084</v>
+        <v>2.707775532677638</v>
       </c>
     </row>
     <row r="8">
@@ -526,10 +526,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B8" t="n">
-        <v>0.221875</v>
+        <v>0.5233</v>
       </c>
       <c r="C8" t="n">
-        <v>2.421656657695844</v>
+        <v>3.19511042307462</v>
       </c>
     </row>
     <row r="9">
@@ -537,10 +537,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3782</v>
+        <v>0.954775</v>
       </c>
       <c r="C9" t="n">
-        <v>2.707775532677638</v>
+        <v>2.361975555666473</v>
       </c>
     </row>
     <row r="10">
@@ -548,10 +548,10 @@
         <v>0.1428</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.2035</v>
       </c>
       <c r="C10" t="n">
-        <v>2.291251513390968</v>
+        <v>2.382499852835771</v>
       </c>
     </row>
     <row r="11">
@@ -559,10 +559,10 @@
         <v>0.1428</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C11" t="n">
-        <v>2.339059392177471</v>
+        <v>2.649031856979964</v>
       </c>
     </row>
     <row r="12">
@@ -570,10 +570,10 @@
         <v>0.1428</v>
       </c>
       <c r="B12" t="n">
-        <v>0.221875</v>
+        <v>0.5233</v>
       </c>
       <c r="C12" t="n">
-        <v>2.384495969860468</v>
+        <v>3.20179837483462</v>
       </c>
     </row>
     <row r="13">
@@ -581,32 +581,32 @@
         <v>0.1428</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3782</v>
+        <v>0.954775</v>
       </c>
       <c r="C13" t="n">
-        <v>2.649031856979964</v>
+        <v>2.464556039207273</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1428</v>
+        <v>0.18225</v>
       </c>
       <c r="B14" t="n">
-        <v>0.52275</v>
+        <v>0.0245</v>
       </c>
       <c r="C14" t="n">
-        <v>3.20102800382268</v>
+        <v>2.308352464591984</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1428</v>
+        <v>0.18225</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.2035</v>
       </c>
       <c r="C15" t="n">
-        <v>2.44225741596815</v>
+        <v>2.312553863968724</v>
       </c>
     </row>
     <row r="16">
@@ -614,10 +614,10 @@
         <v>0.18225</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C16" t="n">
-        <v>2.322066802243421</v>
+        <v>2.542545555836102</v>
       </c>
     </row>
     <row r="17">
@@ -625,43 +625,43 @@
         <v>0.18225</v>
       </c>
       <c r="B17" t="n">
-        <v>0.221875</v>
+        <v>0.954775</v>
       </c>
       <c r="C17" t="n">
-        <v>2.309365745124557</v>
+        <v>2.508341516435023</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.18225</v>
+        <v>0.24025</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3782</v>
+        <v>0.0245</v>
       </c>
       <c r="C18" t="n">
-        <v>2.542545555836102</v>
+        <v>2.267177519690442</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.18225</v>
+        <v>0.24025</v>
       </c>
       <c r="B19" t="n">
-        <v>0.52275</v>
+        <v>0.2035</v>
       </c>
       <c r="C19" t="n">
-        <v>3.11344473267672</v>
+        <v>2.151836438649988</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.18225</v>
+        <v>0.24025</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.5233</v>
       </c>
       <c r="C20" t="n">
-        <v>2.449596820418785</v>
+        <v>2.874484696314765</v>
       </c>
     </row>
     <row r="21">
@@ -669,54 +669,54 @@
         <v>0.24025</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.954775</v>
       </c>
       <c r="C21" t="n">
-        <v>2.2581571183046</v>
+        <v>2.374466369247795</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04293</v>
+        <v>0.0245</v>
       </c>
       <c r="C22" t="n">
-        <v>2.269743045890029</v>
+        <v>1.897770162837313</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3782</v>
+        <v>0.2035</v>
       </c>
       <c r="C23" t="n">
-        <v>2.31175131299865</v>
+        <v>1.287114949473587</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B24" t="n">
-        <v>0.52275</v>
+        <v>0.3782</v>
       </c>
       <c r="C24" t="n">
-        <v>2.872994471079338</v>
+        <v>1.256923878198355</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.5233</v>
       </c>
       <c r="C25" t="n">
-        <v>2.312913017627379</v>
+        <v>2.214448685096546</v>
       </c>
     </row>
     <row r="26">
@@ -724,571 +724,571 @@
         <v>0.4228</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.954775</v>
       </c>
       <c r="C26" t="n">
-        <v>1.956609639004421</v>
+        <v>1.533137698838423</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4228</v>
+        <v>0.4768</v>
       </c>
       <c r="B27" t="n">
-        <v>0.04293</v>
+        <v>0.2035</v>
       </c>
       <c r="C27" t="n">
-        <v>1.846591871255346</v>
+        <v>1.013634972297642</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4228</v>
+        <v>0.4768</v>
       </c>
       <c r="B28" t="n">
-        <v>0.221875</v>
+        <v>0.3782</v>
       </c>
       <c r="C28" t="n">
-        <v>1.221702013594873</v>
+        <v>1.032888902583527</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4228</v>
+        <v>0.4768</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3782</v>
+        <v>0.954775</v>
       </c>
       <c r="C29" t="n">
-        <v>1.256923878198355</v>
+        <v>1.314979720058837</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4228</v>
+        <v>0.55415</v>
       </c>
       <c r="B30" t="n">
-        <v>0.52275</v>
+        <v>0.0245</v>
       </c>
       <c r="C30" t="n">
-        <v>2.211604377464837</v>
+        <v>1.51273798196003</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4228</v>
+        <v>0.55415</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.2035</v>
       </c>
       <c r="C31" t="n">
-        <v>1.486398557070701</v>
+        <v>0.7467628318143484</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4768</v>
+        <v>0.55415</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C32" t="n">
-        <v>1.663622854457779</v>
+        <v>1.001468854618026</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.4768</v>
+        <v>0.55415</v>
       </c>
       <c r="B33" t="n">
-        <v>0.221875</v>
+        <v>0.5233</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9504003539594403</v>
+        <v>2.014497539303214</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.4768</v>
+        <v>0.5999</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3782</v>
+        <v>0.0245</v>
       </c>
       <c r="C34" t="n">
-        <v>1.032888902583527</v>
+        <v>1.418675209460323</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.4768</v>
+        <v>0.5999</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.2035</v>
       </c>
       <c r="C35" t="n">
-        <v>1.256175871126943</v>
+        <v>0.6412089801479686</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.55415</v>
+        <v>0.5999</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.3782</v>
       </c>
       <c r="C36" t="n">
-        <v>1.614451349605375</v>
+        <v>1.109984137596305</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.55415</v>
+        <v>0.5999</v>
       </c>
       <c r="B37" t="n">
-        <v>0.04293</v>
+        <v>0.5233</v>
       </c>
       <c r="C37" t="n">
-        <v>1.430416290282547</v>
+        <v>1.99041497401972</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.55415</v>
+        <v>0.66415</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3782</v>
+        <v>0.2035</v>
       </c>
       <c r="C38" t="n">
-        <v>1.001468854618026</v>
+        <v>0.7633618362575429</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.55415</v>
+        <v>0.66415</v>
       </c>
       <c r="B39" t="n">
-        <v>0.52275</v>
+        <v>0.3782</v>
       </c>
       <c r="C39" t="n">
-        <v>2.011536433745079</v>
+        <v>1.299085149663815</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.5999</v>
+        <v>0.66415</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.5233</v>
       </c>
       <c r="C40" t="n">
-        <v>1.526890404612099</v>
+        <v>2.046113026804621</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5999</v>
+        <v>0.66415</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04293</v>
+        <v>0.954775</v>
       </c>
       <c r="C41" t="n">
-        <v>1.331428133102215</v>
+        <v>1.417220979124469</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B42" t="n">
-        <v>0.221875</v>
+        <v>0.0245</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6149146116338281</v>
+        <v>1.641751834573852</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3782</v>
+        <v>0.2035</v>
       </c>
       <c r="C43" t="n">
-        <v>1.109984137596305</v>
+        <v>1.32362256724401</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B44" t="n">
-        <v>0.52275</v>
+        <v>0.3782</v>
       </c>
       <c r="C44" t="n">
-        <v>1.98791774083696</v>
+        <v>1.649966729031335</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.954775</v>
       </c>
       <c r="C45" t="n">
-        <v>1.076313775946816</v>
+        <v>1.800405711651049</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.0245</v>
       </c>
       <c r="C46" t="n">
-        <v>1.499074615396772</v>
+        <v>2.123606690202452</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B47" t="n">
-        <v>0.221875</v>
+        <v>0.2035</v>
       </c>
       <c r="C47" t="n">
-        <v>0.758938844536551</v>
+        <v>1.923234998374914</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B48" t="n">
         <v>0.3782</v>
       </c>
       <c r="C48" t="n">
-        <v>1.299085149663815</v>
+        <v>1.990118795701449</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B49" t="n">
-        <v>0.52275</v>
+        <v>0.5233</v>
       </c>
       <c r="C49" t="n">
-        <v>2.044144854619011</v>
+        <v>2.30315404829313</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.954775</v>
       </c>
       <c r="C50" t="n">
-        <v>1.356004481253991</v>
+        <v>2.087861068135279</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.0245</v>
       </c>
       <c r="C51" t="n">
-        <v>1.718005479238501</v>
+        <v>2.524549294569441</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B52" t="n">
-        <v>0.04293</v>
+        <v>0.2035</v>
       </c>
       <c r="C52" t="n">
-        <v>1.583382872825477</v>
+        <v>2.292242761925908</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B53" t="n">
         <v>0.3782</v>
       </c>
       <c r="C53" t="n">
-        <v>1.649966729031335</v>
+        <v>2.165428456003601</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.5233</v>
       </c>
       <c r="C54" t="n">
-        <v>1.798040527446591</v>
+        <v>2.309241389857686</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.85185</v>
+        <v>0.93315</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>0.954775</v>
       </c>
       <c r="C55" t="n">
-        <v>2.146281659172781</v>
+        <v>2.211353674356421</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.85185</v>
+        <v>0.0772</v>
       </c>
       <c r="B56" t="n">
-        <v>0.04293</v>
+        <v>0.1241</v>
       </c>
       <c r="C56" t="n">
-        <v>2.103647501075203</v>
+        <v>2.406526112193167</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.85185</v>
+        <v>0.403</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221875</v>
+        <v>0.1241</v>
       </c>
       <c r="C57" t="n">
-        <v>1.912889849779152</v>
+        <v>1.664949508556719</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.85185</v>
+        <v>0.58605</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3782</v>
+        <v>0.1241</v>
       </c>
       <c r="C58" t="n">
-        <v>1.990118795701449</v>
+        <v>0.9657441712019107</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.85185</v>
+        <v>0.8113</v>
       </c>
       <c r="B59" t="n">
-        <v>0.52275</v>
+        <v>0.1241</v>
       </c>
       <c r="C59" t="n">
-        <v>2.301996593459602</v>
+        <v>1.741977639623528</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.85185</v>
+        <v>0.9823</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="C60" t="n">
-        <v>2.122040409537621</v>
+        <v>2.614203016244501</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.93315</v>
+        <v>0.403</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>0.1727</v>
       </c>
       <c r="C61" t="n">
-        <v>2.495276136336464</v>
+        <v>1.501825996173713</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.93315</v>
+        <v>0.58605</v>
       </c>
       <c r="B62" t="n">
-        <v>0.221875</v>
+        <v>0.1727</v>
       </c>
       <c r="C62" t="n">
-        <v>2.263115051243727</v>
+        <v>0.761275415255831</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.93315</v>
+        <v>0.9823</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3782</v>
+        <v>0.1727</v>
       </c>
       <c r="C63" t="n">
-        <v>2.165428456003601</v>
+        <v>2.492274002947787</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.93315</v>
+        <v>0.0772</v>
       </c>
       <c r="B64" t="n">
-        <v>0.52275</v>
+        <v>0.26915</v>
       </c>
       <c r="C64" t="n">
-        <v>2.308417880685277</v>
+        <v>2.465398395572072</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.93315</v>
+        <v>0.403</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.26915</v>
       </c>
       <c r="C65" t="n">
-        <v>2.258628314639118</v>
+        <v>1.200132186349374</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>0.58605</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1241</v>
+        <v>0.26915</v>
       </c>
       <c r="C66" t="n">
-        <v>2.317955806967445</v>
+        <v>0.6790131274775729</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.09088</v>
+        <v>0.8113</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1241</v>
+        <v>0.26915</v>
       </c>
       <c r="C67" t="n">
-        <v>2.418330392033339</v>
+        <v>1.685896481855749</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.404075</v>
+        <v>0.9823</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1241</v>
+        <v>0.26915</v>
       </c>
       <c r="C68" t="n">
-        <v>1.660027230590139</v>
+        <v>2.309631035679439</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.58605</v>
+        <v>0.403</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1241</v>
+        <v>0.3611</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9657441712019107</v>
+        <v>1.285074080111027</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.804225</v>
+        <v>0.58605</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1241</v>
+        <v>0.3611</v>
       </c>
       <c r="C70" t="n">
-        <v>1.694867711271334</v>
+        <v>0.9895185103404337</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.97356</v>
+        <v>0.9823</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1241</v>
+        <v>0.3611</v>
       </c>
       <c r="C71" t="n">
-        <v>2.596367706814724</v>
+        <v>2.212072801461691</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>0.0772</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C72" t="n">
-        <v>2.319359201934939</v>
+        <v>2.951422492396834</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.09088</v>
+        <v>0.403</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C73" t="n">
-        <v>2.41833900556787</v>
+        <v>1.828550581034915</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.404075</v>
+        <v>0.58605</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C74" t="n">
-        <v>1.4961397210653</v>
+        <v>1.549685546046909</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.58605</v>
+        <v>0.8113</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C75" t="n">
-        <v>0.761275415255831</v>
+        <v>2.07751405696562</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>0.9823</v>
       </c>
       <c r="B76" t="n">
-        <v>0.26915</v>
+        <v>0.452</v>
       </c>
       <c r="C76" t="n">
-        <v>2.388965969927552</v>
+        <v>2.20940425883671</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.404075</v>
+        <v>0.403</v>
       </c>
       <c r="B77" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>1.192983835788734</v>
+        <v>2.446370472970718</v>
       </c>
     </row>
     <row r="78">
@@ -1296,263 +1296,87 @@
         <v>0.58605</v>
       </c>
       <c r="B78" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6790131274775729</v>
+        <v>2.121411645477241</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.804225</v>
+        <v>0.8113</v>
       </c>
       <c r="B79" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>1.644714127791898</v>
+        <v>2.42687045840678</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.97356</v>
+        <v>0.9823</v>
       </c>
       <c r="B80" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>2.295445220835435</v>
+        <v>2.451038539745042</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>0.0772</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>2.562674479073852</v>
+        <v>2.363631538211525</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.09088</v>
+        <v>0.403</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>2.657959112365591</v>
+        <v>1.568835707952887</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.404075</v>
+        <v>0.58605</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>1.278248385770236</v>
+        <v>1.001718063553019</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.58605</v>
+        <v>0.8113</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9895185103404337</v>
+        <v>2.014846339219309</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.804225</v>
+        <v>0.9823</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>1.78549270365159</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>0.97356</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.3611</v>
-      </c>
-      <c r="C86" t="n">
-        <v>2.206548413299807</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>0</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2.793199618970304</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>0.09088</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2.962834105270272</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>0.58605</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1.549685546046909</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>0.804225</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C90" t="n">
-        <v>2.063324416600712</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>0</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C91" t="n">
-        <v>2.842809016991985</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>0.404075</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C92" t="n">
-        <v>2.442870887602956</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>0.58605</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C93" t="n">
-        <v>2.121411645477241</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>0.804225</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C94" t="n">
-        <v>2.412228120234975</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>0.97356</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2.464154322411743</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>0</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C96" t="n">
-        <v>2.244616166714406</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>0.09088</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2.384004796365772</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>0.404075</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1.564451802031346</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>0.58605</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1.001718063553019</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>0.804225</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.989487524317502</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>0.97356</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C101" t="n">
-        <v>2.288379140986174</v>
+        <v>2.28492977212135</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1596,10 +1420,10 @@
         <v>0.0342</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04293</v>
+        <v>0.2035</v>
       </c>
       <c r="C2" t="n">
-        <v>2.298810902484608</v>
+        <v>2.370106462164179</v>
       </c>
     </row>
     <row r="3">
@@ -1607,10 +1431,10 @@
         <v>0.0342</v>
       </c>
       <c r="B3" t="n">
-        <v>0.221875</v>
+        <v>0.3782</v>
       </c>
       <c r="C3" t="n">
-        <v>2.366035152855036</v>
+        <v>2.493288909113194</v>
       </c>
     </row>
     <row r="4">
@@ -1618,21 +1442,21 @@
         <v>0.0342</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3782</v>
+        <v>0.5233</v>
       </c>
       <c r="C4" t="n">
-        <v>2.493288909113194</v>
+        <v>3.087054802651211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0342</v>
+        <v>0.08790000000000001</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.0245</v>
       </c>
       <c r="C5" t="n">
-        <v>2.21207235330098</v>
+        <v>2.319384897029255</v>
       </c>
     </row>
     <row r="6">
@@ -1640,10 +1464,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.2035</v>
       </c>
       <c r="C6" t="n">
-        <v>2.288011996434276</v>
+        <v>2.426344682958336</v>
       </c>
     </row>
     <row r="7">
@@ -1651,10 +1475,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C7" t="n">
-        <v>2.342766480901367</v>
+        <v>2.563626356433465</v>
       </c>
     </row>
     <row r="8">
@@ -1662,10 +1486,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B8" t="n">
-        <v>0.221875</v>
+        <v>0.5233</v>
       </c>
       <c r="C8" t="n">
-        <v>2.421046714011923</v>
+        <v>3.189151092694194</v>
       </c>
     </row>
     <row r="9">
@@ -1673,10 +1497,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3782</v>
+        <v>0.954775</v>
       </c>
       <c r="C9" t="n">
-        <v>2.563626356433465</v>
+        <v>2.457534946507073</v>
       </c>
     </row>
     <row r="10">
@@ -1684,10 +1508,10 @@
         <v>0.1428</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.2035</v>
       </c>
       <c r="C10" t="n">
-        <v>2.305198518945996</v>
+        <v>2.437676952374445</v>
       </c>
     </row>
     <row r="11">
@@ -1695,10 +1519,10 @@
         <v>0.1428</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C11" t="n">
-        <v>2.363996930969411</v>
+        <v>2.589480464266318</v>
       </c>
     </row>
     <row r="12">
@@ -1706,10 +1530,10 @@
         <v>0.1428</v>
       </c>
       <c r="B12" t="n">
-        <v>0.221875</v>
+        <v>0.5233</v>
       </c>
       <c r="C12" t="n">
-        <v>2.429913065645121</v>
+        <v>3.225182580042983</v>
       </c>
     </row>
     <row r="13">
@@ -1717,32 +1541,32 @@
         <v>0.1428</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3782</v>
+        <v>0.954775</v>
       </c>
       <c r="C13" t="n">
-        <v>2.589480464266318</v>
+        <v>2.552094325769212</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1428</v>
+        <v>0.18225</v>
       </c>
       <c r="B14" t="n">
-        <v>0.52275</v>
+        <v>0.0245</v>
       </c>
       <c r="C14" t="n">
-        <v>3.22311344811485</v>
+        <v>2.336678167294227</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1428</v>
+        <v>0.18225</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.2035</v>
       </c>
       <c r="C15" t="n">
-        <v>2.431633363463418</v>
+        <v>2.401378299779761</v>
       </c>
     </row>
     <row r="16">
@@ -1750,10 +1574,10 @@
         <v>0.18225</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C16" t="n">
-        <v>2.360197884353738</v>
+        <v>2.550595734768065</v>
       </c>
     </row>
     <row r="17">
@@ -1761,43 +1585,43 @@
         <v>0.18225</v>
       </c>
       <c r="B17" t="n">
-        <v>0.221875</v>
+        <v>0.954775</v>
       </c>
       <c r="C17" t="n">
-        <v>2.389053424531114</v>
+        <v>2.511199336849185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.18225</v>
+        <v>0.24025</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3782</v>
+        <v>0.0245</v>
       </c>
       <c r="C18" t="n">
-        <v>2.550595734768065</v>
+        <v>2.308641130440374</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.18225</v>
+        <v>0.24025</v>
       </c>
       <c r="B19" t="n">
-        <v>0.52275</v>
+        <v>0.2035</v>
       </c>
       <c r="C19" t="n">
-        <v>3.19683601552803</v>
+        <v>2.264680803912607</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.18225</v>
+        <v>0.24025</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.5233</v>
       </c>
       <c r="C20" t="n">
-        <v>2.38566412311507</v>
+        <v>3.075436986825904</v>
       </c>
     </row>
     <row r="21">
@@ -1805,54 +1629,54 @@
         <v>0.24025</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.954775</v>
       </c>
       <c r="C21" t="n">
-        <v>2.282885617820445</v>
+        <v>2.307012392360234</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04293</v>
+        <v>0.0245</v>
       </c>
       <c r="C22" t="n">
-        <v>2.32589454635417</v>
+        <v>2.004872287222224</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3782</v>
+        <v>0.2035</v>
       </c>
       <c r="C23" t="n">
-        <v>2.370053845548687</v>
+        <v>1.276890848861211</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B24" t="n">
-        <v>0.52275</v>
+        <v>0.3782</v>
       </c>
       <c r="C24" t="n">
-        <v>3.073357151648342</v>
+        <v>1.199460087550118</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.5233</v>
       </c>
       <c r="C25" t="n">
-        <v>2.193603289579405</v>
+        <v>2.408572983512448</v>
       </c>
     </row>
     <row r="26">
@@ -1860,571 +1684,571 @@
         <v>0.4228</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.954775</v>
       </c>
       <c r="C26" t="n">
-        <v>2.041620615809694</v>
+        <v>1.578358652146148</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4228</v>
+        <v>0.4768</v>
       </c>
       <c r="B27" t="n">
-        <v>0.04293</v>
+        <v>0.2035</v>
       </c>
       <c r="C27" t="n">
-        <v>1.968788509026646</v>
+        <v>0.9559259741420952</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4228</v>
+        <v>0.4768</v>
       </c>
       <c r="B28" t="n">
-        <v>0.221875</v>
+        <v>0.3782</v>
       </c>
       <c r="C28" t="n">
-        <v>1.179445941332427</v>
+        <v>0.9579083288042224</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4228</v>
+        <v>0.4768</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3782</v>
+        <v>0.954775</v>
       </c>
       <c r="C29" t="n">
-        <v>1.199460087550118</v>
+        <v>1.352812816862226</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4228</v>
+        <v>0.55415</v>
       </c>
       <c r="B30" t="n">
-        <v>0.52275</v>
+        <v>0.0245</v>
       </c>
       <c r="C30" t="n">
-        <v>2.405289268309186</v>
+        <v>1.534643722223391</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4228</v>
+        <v>0.55415</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.2035</v>
       </c>
       <c r="C31" t="n">
-        <v>1.48088657585051</v>
+        <v>0.6407549551699687</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4768</v>
+        <v>0.55415</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C32" t="n">
-        <v>1.768064863180071</v>
+        <v>0.8642745192752713</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.4768</v>
+        <v>0.55415</v>
       </c>
       <c r="B33" t="n">
-        <v>0.221875</v>
+        <v>0.5233</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8597099624196054</v>
+        <v>1.992844290195619</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.4768</v>
+        <v>0.5999</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3782</v>
+        <v>0.0245</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9579083288042224</v>
+        <v>1.391246228317672</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.4768</v>
+        <v>0.5999</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.2035</v>
       </c>
       <c r="C35" t="n">
-        <v>1.238516767438857</v>
+        <v>0.5809700397494546</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.55415</v>
+        <v>0.5999</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.3782</v>
       </c>
       <c r="C36" t="n">
-        <v>1.64130525129164</v>
+        <v>0.9479147952289673</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.55415</v>
+        <v>0.5999</v>
       </c>
       <c r="B37" t="n">
-        <v>0.04293</v>
+        <v>0.5233</v>
       </c>
       <c r="C37" t="n">
-        <v>1.447886209548916</v>
+        <v>1.916154509063791</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.55415</v>
+        <v>0.66415</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3782</v>
+        <v>0.2035</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8642745192752713</v>
+        <v>0.6934815574249209</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.55415</v>
+        <v>0.66415</v>
       </c>
       <c r="B39" t="n">
-        <v>0.52275</v>
+        <v>0.3782</v>
       </c>
       <c r="C39" t="n">
-        <v>1.990019841146794</v>
+        <v>1.196063946410663</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.5999</v>
+        <v>0.66415</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.5233</v>
       </c>
       <c r="C40" t="n">
-        <v>1.514004611758136</v>
+        <v>1.925226636386365</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5999</v>
+        <v>0.66415</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04293</v>
+        <v>0.954775</v>
       </c>
       <c r="C41" t="n">
-        <v>1.294929611570563</v>
+        <v>1.245108652157796</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B42" t="n">
-        <v>0.221875</v>
+        <v>0.0245</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5452040672505841</v>
+        <v>1.586546003272243</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3782</v>
+        <v>0.2035</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9479147952289673</v>
+        <v>1.234399835460724</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B44" t="n">
-        <v>0.52275</v>
+        <v>0.3782</v>
       </c>
       <c r="C44" t="n">
-        <v>1.913772721418105</v>
+        <v>1.664041476129899</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.954775</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9467149125943277</v>
+        <v>1.739346310711846</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.0245</v>
       </c>
       <c r="C46" t="n">
-        <v>1.440940806655198</v>
+        <v>2.181980092882131</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B47" t="n">
-        <v>0.221875</v>
+        <v>0.2035</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6938071147242062</v>
+        <v>1.939573362684447</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B48" t="n">
         <v>0.3782</v>
       </c>
       <c r="C48" t="n">
-        <v>1.196063946410663</v>
+        <v>2.024420435040513</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B49" t="n">
-        <v>0.52275</v>
+        <v>0.5233</v>
       </c>
       <c r="C49" t="n">
-        <v>1.923396813112377</v>
+        <v>2.326103380278684</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.954775</v>
       </c>
       <c r="C50" t="n">
-        <v>1.169210627750287</v>
+        <v>2.092033572850522</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.0245</v>
       </c>
       <c r="C51" t="n">
-        <v>1.673954045275772</v>
+        <v>2.625002866115245</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B52" t="n">
-        <v>0.04293</v>
+        <v>0.2035</v>
       </c>
       <c r="C52" t="n">
-        <v>1.521105458937497</v>
+        <v>2.382738150772649</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B53" t="n">
         <v>0.3782</v>
       </c>
       <c r="C53" t="n">
-        <v>1.664041476129899</v>
+        <v>2.17580485686356</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.5233</v>
       </c>
       <c r="C54" t="n">
-        <v>1.735679960544159</v>
+        <v>2.362179238805012</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.85185</v>
+        <v>0.93315</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>0.954775</v>
       </c>
       <c r="C55" t="n">
-        <v>2.202285172136222</v>
+        <v>2.198786190636019</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.85185</v>
+        <v>0.0772</v>
       </c>
       <c r="B56" t="n">
-        <v>0.04293</v>
+        <v>0.1241</v>
       </c>
       <c r="C56" t="n">
-        <v>2.161732137100949</v>
+        <v>2.410834540764419</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.85185</v>
+        <v>0.403</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221875</v>
+        <v>0.1241</v>
       </c>
       <c r="C57" t="n">
-        <v>1.92755418022424</v>
+        <v>1.796040604426548</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.85185</v>
+        <v>0.58605</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3782</v>
+        <v>0.1241</v>
       </c>
       <c r="C58" t="n">
-        <v>2.024420435040513</v>
+        <v>0.9101690343899919</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.85185</v>
+        <v>0.8113</v>
       </c>
       <c r="B59" t="n">
-        <v>0.52275</v>
+        <v>0.1241</v>
       </c>
       <c r="C59" t="n">
-        <v>2.324766188016535</v>
+        <v>1.706315366385772</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.85185</v>
+        <v>0.9823</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="C60" t="n">
-        <v>2.139863447197754</v>
+        <v>2.709490264967455</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.93315</v>
+        <v>0.403</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>0.1727</v>
       </c>
       <c r="C61" t="n">
-        <v>2.599592679497061</v>
+        <v>1.56563690012836</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.93315</v>
+        <v>0.58605</v>
       </c>
       <c r="B62" t="n">
-        <v>0.221875</v>
+        <v>0.1727</v>
       </c>
       <c r="C62" t="n">
-        <v>2.340181633189077</v>
+        <v>0.6915521887510525</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.93315</v>
+        <v>0.9823</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3782</v>
+        <v>0.1727</v>
       </c>
       <c r="C63" t="n">
-        <v>2.17580485686356</v>
+        <v>2.59369648237189</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.93315</v>
+        <v>0.0772</v>
       </c>
       <c r="B64" t="n">
-        <v>0.52275</v>
+        <v>0.26915</v>
       </c>
       <c r="C64" t="n">
-        <v>2.361052625591293</v>
+        <v>2.404604209967006</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.93315</v>
+        <v>0.403</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.26915</v>
       </c>
       <c r="C65" t="n">
-        <v>2.25616828399185</v>
+        <v>1.122589203172706</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>0.58605</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1241</v>
+        <v>0.26915</v>
       </c>
       <c r="C66" t="n">
-        <v>2.317710815116316</v>
+        <v>0.5041850928196629</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.09088</v>
+        <v>0.8113</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1241</v>
+        <v>0.26915</v>
       </c>
       <c r="C67" t="n">
-        <v>2.42230693855944</v>
+        <v>1.684844792548196</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.404075</v>
+        <v>0.9823</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1241</v>
+        <v>0.26915</v>
       </c>
       <c r="C68" t="n">
-        <v>1.790810132621484</v>
+        <v>2.336947804607485</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.58605</v>
+        <v>0.403</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1241</v>
+        <v>0.3611</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9101690343899919</v>
+        <v>1.21885353356219</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.804225</v>
+        <v>0.58605</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1241</v>
+        <v>0.3611</v>
       </c>
       <c r="C70" t="n">
-        <v>1.64746480702742</v>
+        <v>0.8046141937998246</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.97356</v>
+        <v>0.9823</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1241</v>
+        <v>0.3611</v>
       </c>
       <c r="C71" t="n">
-        <v>2.693757635502804</v>
+        <v>2.212881757959216</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>0.0772</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C72" t="n">
-        <v>2.326966724326177</v>
+        <v>2.847285687744197</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.09088</v>
+        <v>0.403</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C73" t="n">
-        <v>2.433700452913596</v>
+        <v>1.924720065137951</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.404075</v>
+        <v>0.58605</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C74" t="n">
-        <v>1.559300862497773</v>
+        <v>1.472587013534257</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.58605</v>
+        <v>0.8113</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6915521887510525</v>
+        <v>2.073065981497061</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>0.9823</v>
       </c>
       <c r="B76" t="n">
-        <v>0.26915</v>
+        <v>0.452</v>
       </c>
       <c r="C76" t="n">
-        <v>2.317032127433044</v>
+        <v>2.236104279799188</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.404075</v>
+        <v>0.403</v>
       </c>
       <c r="B77" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>1.115001320347835</v>
+        <v>2.59227666959687</v>
       </c>
     </row>
     <row r="78">
@@ -2432,263 +2256,87 @@
         <v>0.58605</v>
       </c>
       <c r="B78" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5041850928196629</v>
+        <v>1.931901615414392</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.804225</v>
+        <v>0.8113</v>
       </c>
       <c r="B79" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>1.640017315752186</v>
+        <v>2.469717299071185</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.97356</v>
+        <v>0.9823</v>
       </c>
       <c r="B80" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>2.326700844507944</v>
+        <v>2.526733465307567</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>0.0772</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>2.402376079800264</v>
+        <v>2.315493274946981</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.09088</v>
+        <v>0.403</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>2.519122494847234</v>
+        <v>1.549759730430736</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.404075</v>
+        <v>0.58605</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>1.211817650768535</v>
+        <v>0.9134715048837598</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.58605</v>
+        <v>0.8113</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8046141937998246</v>
+        <v>2.024416811143837</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.804225</v>
+        <v>0.9823</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>1.823273892526938</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>0.97356</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.3611</v>
-      </c>
-      <c r="C86" t="n">
-        <v>2.208704609516162</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>0</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2.700230657833274</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>0.09088</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2.866141189997096</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>0.58605</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1.472587013534257</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>0.804225</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C90" t="n">
-        <v>2.054468610841133</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>0</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C91" t="n">
-        <v>3.04425575184806</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>0.404075</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C92" t="n">
-        <v>2.587946632872864</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>0.58605</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1.931901615414392</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>0.804225</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C94" t="n">
-        <v>2.448115224891612</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>0.97356</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2.542410300337338</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>0</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C96" t="n">
-        <v>2.115067705014516</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>0.09088</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2.345474441513119</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>0.404075</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1.545441897446751</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>0.58605</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.9134715048837598</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>0.804225</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.993031000689568</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>0.97356</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C101" t="n">
-        <v>2.284132983433564</v>
+        <v>2.280670879343432</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +2350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2732,10 +2380,10 @@
         <v>0.0342</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04293</v>
+        <v>0.2035</v>
       </c>
       <c r="C2" t="n">
-        <v>2.277515883365806</v>
+        <v>2.370476273082733</v>
       </c>
     </row>
     <row r="3">
@@ -2743,10 +2391,10 @@
         <v>0.0342</v>
       </c>
       <c r="B3" t="n">
-        <v>0.221875</v>
+        <v>0.3782</v>
       </c>
       <c r="C3" t="n">
-        <v>2.371669830746444</v>
+        <v>2.558299263825177</v>
       </c>
     </row>
     <row r="4">
@@ -2754,21 +2402,21 @@
         <v>0.0342</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3782</v>
+        <v>0.5233</v>
       </c>
       <c r="C4" t="n">
-        <v>2.558299263825177</v>
+        <v>3.017786123472074</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0342</v>
+        <v>0.08790000000000001</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.0245</v>
       </c>
       <c r="C5" t="n">
-        <v>2.303953552840467</v>
+        <v>2.255008346411097</v>
       </c>
     </row>
     <row r="6">
@@ -2776,10 +2424,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.2035</v>
       </c>
       <c r="C6" t="n">
-        <v>2.226769024155017</v>
+        <v>2.381225078588632</v>
       </c>
     </row>
     <row r="7">
@@ -2787,10 +2435,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C7" t="n">
-        <v>2.279898278521345</v>
+        <v>2.582023060141134</v>
       </c>
     </row>
     <row r="8">
@@ -2798,10 +2446,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B8" t="n">
-        <v>0.221875</v>
+        <v>0.5233</v>
       </c>
       <c r="C8" t="n">
-        <v>2.374320231106525</v>
+        <v>3.156094851869652</v>
       </c>
     </row>
     <row r="9">
@@ -2809,10 +2457,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3782</v>
+        <v>0.954775</v>
       </c>
       <c r="C9" t="n">
-        <v>2.582023060141134</v>
+        <v>2.351368557653373</v>
       </c>
     </row>
     <row r="10">
@@ -2820,10 +2468,10 @@
         <v>0.1428</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.2035</v>
       </c>
       <c r="C10" t="n">
-        <v>2.193770032901847</v>
+        <v>2.317910438823252</v>
       </c>
     </row>
     <row r="11">
@@ -2831,10 +2479,10 @@
         <v>0.1428</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C11" t="n">
-        <v>2.235585939780919</v>
+        <v>2.540635046195256</v>
       </c>
     </row>
     <row r="12">
@@ -2842,10 +2490,10 @@
         <v>0.1428</v>
       </c>
       <c r="B12" t="n">
-        <v>0.221875</v>
+        <v>0.5233</v>
       </c>
       <c r="C12" t="n">
-        <v>2.312220311372899</v>
+        <v>3.179199516939843</v>
       </c>
     </row>
     <row r="13">
@@ -2853,32 +2501,32 @@
         <v>0.1428</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3782</v>
+        <v>0.954775</v>
       </c>
       <c r="C13" t="n">
-        <v>2.540635046195256</v>
+        <v>2.446684607306829</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1428</v>
+        <v>0.18225</v>
       </c>
       <c r="B14" t="n">
-        <v>0.52275</v>
+        <v>0.0245</v>
       </c>
       <c r="C14" t="n">
-        <v>3.179146017796596</v>
+        <v>2.168545963182741</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1428</v>
+        <v>0.18225</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.2035</v>
       </c>
       <c r="C15" t="n">
-        <v>2.432546823516067</v>
+        <v>2.22690655857587</v>
       </c>
     </row>
     <row r="16">
@@ -2886,10 +2534,10 @@
         <v>0.18225</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C16" t="n">
-        <v>2.180414645402339</v>
+        <v>2.458391768161389</v>
       </c>
     </row>
     <row r="17">
@@ -2897,43 +2545,43 @@
         <v>0.18225</v>
       </c>
       <c r="B17" t="n">
-        <v>0.221875</v>
+        <v>0.954775</v>
       </c>
       <c r="C17" t="n">
-        <v>2.225882020853255</v>
+        <v>2.492962215619628</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.18225</v>
+        <v>0.24025</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3782</v>
+        <v>0.0245</v>
       </c>
       <c r="C18" t="n">
-        <v>2.458391768161389</v>
+        <v>2.082651366209986</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.18225</v>
+        <v>0.24025</v>
       </c>
       <c r="B19" t="n">
-        <v>0.52275</v>
+        <v>0.2035</v>
       </c>
       <c r="C19" t="n">
-        <v>3.042790294096154</v>
+        <v>2.058358730541388</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.18225</v>
+        <v>0.24025</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.5233</v>
       </c>
       <c r="C20" t="n">
-        <v>2.433945378587548</v>
+        <v>2.709394691949275</v>
       </c>
     </row>
     <row r="21">
@@ -2941,54 +2589,54 @@
         <v>0.24025</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.954775</v>
       </c>
       <c r="C21" t="n">
-        <v>2.081937322157934</v>
+        <v>2.345003901484267</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04293</v>
+        <v>0.0245</v>
       </c>
       <c r="C22" t="n">
-        <v>2.08304201298307</v>
+        <v>1.775646989860969</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3782</v>
+        <v>0.2035</v>
       </c>
       <c r="C23" t="n">
-        <v>2.262643686164969</v>
+        <v>1.358778634448761</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B24" t="n">
-        <v>0.52275</v>
+        <v>0.3782</v>
       </c>
       <c r="C24" t="n">
-        <v>2.708566554723917</v>
+        <v>1.296568287615263</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.5233</v>
       </c>
       <c r="C25" t="n">
-        <v>2.303235037756297</v>
+        <v>2.111951491297765</v>
       </c>
     </row>
     <row r="26">
@@ -2996,571 +2644,571 @@
         <v>0.4228</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.954775</v>
       </c>
       <c r="C26" t="n">
-        <v>1.815844157775009</v>
+        <v>1.581571502962259</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4228</v>
+        <v>0.4768</v>
       </c>
       <c r="B27" t="n">
-        <v>0.04293</v>
+        <v>0.2035</v>
       </c>
       <c r="C27" t="n">
-        <v>1.742780899551488</v>
+        <v>1.17706972311836</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4228</v>
+        <v>0.4768</v>
       </c>
       <c r="B28" t="n">
-        <v>0.221875</v>
+        <v>0.3782</v>
       </c>
       <c r="C28" t="n">
-        <v>1.304821676049891</v>
+        <v>1.08656732115517</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4228</v>
+        <v>0.4768</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3782</v>
+        <v>0.954775</v>
       </c>
       <c r="C29" t="n">
-        <v>1.296568287615263</v>
+        <v>1.373969737151485</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4228</v>
+        <v>0.55415</v>
       </c>
       <c r="B30" t="n">
-        <v>0.52275</v>
+        <v>0.0245</v>
       </c>
       <c r="C30" t="n">
-        <v>2.109550033971316</v>
+        <v>1.558201186337755</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4228</v>
+        <v>0.55415</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.2035</v>
       </c>
       <c r="C31" t="n">
-        <v>1.550387220376465</v>
+        <v>0.9335758662351156</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4768</v>
+        <v>0.55415</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C32" t="n">
-        <v>1.640249304173302</v>
+        <v>1.122610919917218</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.4768</v>
+        <v>0.55415</v>
       </c>
       <c r="B33" t="n">
-        <v>0.221875</v>
+        <v>0.5233</v>
       </c>
       <c r="C33" t="n">
-        <v>1.118963172448793</v>
+        <v>2.00043900918759</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.4768</v>
+        <v>0.5999</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3782</v>
+        <v>0.0245</v>
       </c>
       <c r="C34" t="n">
-        <v>1.08656732115517</v>
+        <v>1.497031279874435</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.4768</v>
+        <v>0.5999</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.2035</v>
       </c>
       <c r="C35" t="n">
-        <v>1.33529893593106</v>
+        <v>0.7486717252161407</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.55415</v>
+        <v>0.5999</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.3782</v>
       </c>
       <c r="C36" t="n">
-        <v>1.630896490618862</v>
+        <v>1.273782190736424</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.55415</v>
+        <v>0.5999</v>
       </c>
       <c r="B37" t="n">
-        <v>0.04293</v>
+        <v>0.5233</v>
       </c>
       <c r="C37" t="n">
-        <v>1.4993828022844</v>
+        <v>1.952616513023228</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.55415</v>
+        <v>0.66415</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3782</v>
+        <v>0.2035</v>
       </c>
       <c r="C38" t="n">
-        <v>1.122610919917218</v>
+        <v>0.8690610078956896</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.55415</v>
+        <v>0.66415</v>
       </c>
       <c r="B39" t="n">
-        <v>0.52275</v>
+        <v>0.3782</v>
       </c>
       <c r="C39" t="n">
-        <v>1.997763750510551</v>
+        <v>1.475496780399686</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.5999</v>
+        <v>0.66415</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.5233</v>
       </c>
       <c r="C40" t="n">
-        <v>1.582872495025849</v>
+        <v>1.977234490823085</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5999</v>
+        <v>0.66415</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04293</v>
+        <v>0.954775</v>
       </c>
       <c r="C41" t="n">
-        <v>1.427664429621033</v>
+        <v>1.561997577489513</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B42" t="n">
-        <v>0.221875</v>
+        <v>0.0245</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7170461362940775</v>
+        <v>1.659219210665269</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3782</v>
+        <v>0.2035</v>
       </c>
       <c r="C43" t="n">
-        <v>1.273782190736424</v>
+        <v>1.4208623221567</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B44" t="n">
-        <v>0.52275</v>
+        <v>0.3782</v>
       </c>
       <c r="C44" t="n">
-        <v>1.950642399208819</v>
+        <v>1.761341033873194</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.954775</v>
       </c>
       <c r="C45" t="n">
-        <v>1.200317253297736</v>
+        <v>1.853597843216944</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.0245</v>
       </c>
       <c r="C46" t="n">
-        <v>1.561414853529945</v>
+        <v>2.060324145379541</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B47" t="n">
-        <v>0.221875</v>
+        <v>0.2035</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8714298422633112</v>
+        <v>1.886773492306325</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B48" t="n">
         <v>0.3782</v>
       </c>
       <c r="C48" t="n">
-        <v>1.475496780399686</v>
+        <v>1.985791473272704</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B49" t="n">
-        <v>0.52275</v>
+        <v>0.5233</v>
       </c>
       <c r="C49" t="n">
-        <v>1.975859796679882</v>
+        <v>2.264423560011882</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.954775</v>
       </c>
       <c r="C50" t="n">
-        <v>1.507841454575553</v>
+        <v>2.030952499457808</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.0245</v>
       </c>
       <c r="C51" t="n">
-        <v>1.732965470323588</v>
+        <v>2.423694802494505</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B52" t="n">
-        <v>0.04293</v>
+        <v>0.2035</v>
       </c>
       <c r="C52" t="n">
-        <v>1.59906498764261</v>
+        <v>2.169871767563166</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B53" t="n">
         <v>0.3782</v>
       </c>
       <c r="C53" t="n">
-        <v>1.761341033873194</v>
+        <v>2.105472406417528</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.5233</v>
       </c>
       <c r="C54" t="n">
-        <v>1.85877612254055</v>
+        <v>2.263769523158385</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.85185</v>
+        <v>0.93315</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>0.954775</v>
       </c>
       <c r="C55" t="n">
-        <v>2.072073281612318</v>
+        <v>2.108192865680282</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.85185</v>
+        <v>0.0772</v>
       </c>
       <c r="B56" t="n">
-        <v>0.04293</v>
+        <v>0.1241</v>
       </c>
       <c r="C56" t="n">
-        <v>2.047861279434134</v>
+        <v>2.405780903374618</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.85185</v>
+        <v>0.403</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221875</v>
+        <v>0.1241</v>
       </c>
       <c r="C57" t="n">
-        <v>1.880216713257929</v>
+        <v>1.625879420694963</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.85185</v>
+        <v>0.58605</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3782</v>
+        <v>0.1241</v>
       </c>
       <c r="C58" t="n">
-        <v>1.985791473272704</v>
+        <v>1.128256559656317</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.85185</v>
+        <v>0.8113</v>
       </c>
       <c r="B59" t="n">
-        <v>0.52275</v>
+        <v>0.1241</v>
       </c>
       <c r="C59" t="n">
-        <v>2.2631617971231</v>
+        <v>1.733258727393568</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.85185</v>
+        <v>0.9823</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="C60" t="n">
-        <v>2.059886892202442</v>
+        <v>2.497680713343391</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.93315</v>
+        <v>0.403</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>0.1727</v>
       </c>
       <c r="C61" t="n">
-        <v>2.371053447798584</v>
+        <v>1.512444414233596</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.93315</v>
+        <v>0.58605</v>
       </c>
       <c r="B62" t="n">
-        <v>0.221875</v>
+        <v>0.1727</v>
       </c>
       <c r="C62" t="n">
-        <v>2.142122041807521</v>
+        <v>0.9207188253988839</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.93315</v>
+        <v>0.9823</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3782</v>
+        <v>0.1727</v>
       </c>
       <c r="C63" t="n">
-        <v>2.105472406417528</v>
+        <v>2.33645121780567</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.93315</v>
+        <v>0.0772</v>
       </c>
       <c r="B64" t="n">
-        <v>0.52275</v>
+        <v>0.26915</v>
       </c>
       <c r="C64" t="n">
-        <v>2.263004238513792</v>
+        <v>2.389431827269584</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.93315</v>
+        <v>0.403</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.26915</v>
       </c>
       <c r="C65" t="n">
-        <v>2.140554786580357</v>
+        <v>1.269435406257587</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>0.58605</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1241</v>
+        <v>0.26915</v>
       </c>
       <c r="C66" t="n">
-        <v>2.325109801129554</v>
+        <v>0.867640868616549</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.09088</v>
+        <v>0.8113</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1241</v>
+        <v>0.26915</v>
       </c>
       <c r="C67" t="n">
-        <v>2.411302650460297</v>
+        <v>1.737224210891496</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.404075</v>
+        <v>0.9823</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1241</v>
+        <v>0.26915</v>
       </c>
       <c r="C68" t="n">
-        <v>1.622855152065776</v>
+        <v>2.172525671518891</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.58605</v>
+        <v>0.403</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1241</v>
+        <v>0.3611</v>
       </c>
       <c r="C69" t="n">
-        <v>1.128256559656317</v>
+        <v>1.331089093374832</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.804225</v>
+        <v>0.58605</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1241</v>
+        <v>0.3611</v>
       </c>
       <c r="C70" t="n">
-        <v>1.691813317580953</v>
+        <v>1.165361986433004</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.97356</v>
+        <v>0.9823</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1241</v>
+        <v>0.3611</v>
       </c>
       <c r="C71" t="n">
-        <v>2.486069720627738</v>
+        <v>2.142848402452016</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>0.0772</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C72" t="n">
-        <v>2.341202359891022</v>
+        <v>2.850852034594038</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.09088</v>
+        <v>0.403</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C73" t="n">
-        <v>2.403986455050301</v>
+        <v>1.795173686785402</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.404075</v>
+        <v>0.58605</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C74" t="n">
-        <v>1.508752615861931</v>
+        <v>1.597089568884952</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.58605</v>
+        <v>0.8113</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9207188253988839</v>
+        <v>2.054512448197896</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>0.9823</v>
       </c>
       <c r="B76" t="n">
-        <v>0.26915</v>
+        <v>0.452</v>
       </c>
       <c r="C76" t="n">
-        <v>2.376071800143028</v>
+        <v>2.185806950357871</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.404075</v>
+        <v>0.403</v>
       </c>
       <c r="B77" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>1.26307769625939</v>
+        <v>2.349067309941274</v>
       </c>
     </row>
     <row r="78">
@@ -3568,263 +3216,87 @@
         <v>0.58605</v>
       </c>
       <c r="B78" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.867640868616549</v>
+        <v>2.060364329568921</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.804225</v>
+        <v>0.8113</v>
       </c>
       <c r="B79" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>1.709121633790468</v>
+        <v>2.360929977552629</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.97356</v>
+        <v>0.9823</v>
       </c>
       <c r="B80" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>2.162034204574064</v>
+        <v>2.370975272276</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>0.0772</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>2.490149632614141</v>
+        <v>2.373122379884987</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.09088</v>
+        <v>0.403</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>2.532980456392392</v>
+        <v>1.620567629849827</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.404075</v>
+        <v>0.58605</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>1.32413481987246</v>
+        <v>1.089627633645019</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.58605</v>
+        <v>0.8113</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>1.165361986433004</v>
+        <v>2.002788704194385</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.804225</v>
+        <v>0.9823</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>1.849391990139384</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>0.97356</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.3611</v>
-      </c>
-      <c r="C86" t="n">
-        <v>2.136179627731775</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>0</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2.697354578665047</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>0.09088</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2.866803646702401</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>0.58605</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1.597089568884952</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>0.804225</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C90" t="n">
-        <v>2.04278897085999</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>0</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C91" t="n">
-        <v>2.768364110463516</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>0.404075</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C92" t="n">
-        <v>2.346569740898373</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>0.58605</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C93" t="n">
-        <v>2.060364329568921</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>0.804225</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C94" t="n">
-        <v>2.344173209521377</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>0.97356</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2.384663772922408</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>0</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C96" t="n">
-        <v>2.290282351202653</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>0.09088</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2.388749672438981</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>0.404075</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1.617084020466968</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>0.58605</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1.089627633645019</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>0.804225</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.987354630502182</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>0.97356</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C101" t="n">
-        <v>2.171007446748377</v>
+        <v>2.1722494464485</v>
       </c>
     </row>
   </sheetData>
@@ -3838,7 +3310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3868,10 +3340,10 @@
         <v>0.0342</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04293</v>
+        <v>0.2035</v>
       </c>
       <c r="C2" t="n">
-        <v>2.063080000028269</v>
+        <v>2.063080000049695</v>
       </c>
     </row>
     <row r="3">
@@ -3879,10 +3351,10 @@
         <v>0.0342</v>
       </c>
       <c r="B3" t="n">
-        <v>0.221875</v>
+        <v>0.3782</v>
       </c>
       <c r="C3" t="n">
-        <v>2.063080000052325</v>
+        <v>2.063080000080168</v>
       </c>
     </row>
     <row r="4">
@@ -3890,21 +3362,21 @@
         <v>0.0342</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3782</v>
+        <v>0.5233</v>
       </c>
       <c r="C4" t="n">
-        <v>2.063080000080168</v>
+        <v>2.063080000108885</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0342</v>
+        <v>0.08790000000000001</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.0245</v>
       </c>
       <c r="C5" t="n">
-        <v>2.063080000100712</v>
+        <v>2.063080000015311</v>
       </c>
     </row>
     <row r="6">
@@ -3912,10 +3384,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.2035</v>
       </c>
       <c r="C6" t="n">
-        <v>2.063080000012442</v>
+        <v>2.063080000038348</v>
       </c>
     </row>
     <row r="7">
@@ -3923,10 +3395,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C7" t="n">
-        <v>2.063080000017607</v>
+        <v>2.063080000070135</v>
       </c>
     </row>
     <row r="8">
@@ -3934,10 +3406,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B8" t="n">
-        <v>0.221875</v>
+        <v>0.5233</v>
       </c>
       <c r="C8" t="n">
-        <v>2.063080000040877</v>
+        <v>2.063080000103485</v>
       </c>
     </row>
     <row r="9">
@@ -3945,10 +3417,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3782</v>
+        <v>0.954775</v>
       </c>
       <c r="C9" t="n">
-        <v>2.063080000070135</v>
+        <v>2.063080000090924</v>
       </c>
     </row>
     <row r="10">
@@ -3956,10 +3428,10 @@
         <v>0.1428</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.2035</v>
       </c>
       <c r="C10" t="n">
-        <v>2.063080000000239</v>
+        <v>2.063080000023743</v>
       </c>
     </row>
     <row r="11">
@@ -3967,10 +3439,10 @@
         <v>0.1428</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C11" t="n">
-        <v>2.063080000004635</v>
+        <v>2.063080000056159</v>
       </c>
     </row>
     <row r="12">
@@ -3978,10 +3450,10 @@
         <v>0.1428</v>
       </c>
       <c r="B12" t="n">
-        <v>0.221875</v>
+        <v>0.5233</v>
       </c>
       <c r="C12" t="n">
-        <v>2.063080000026239</v>
+        <v>2.06308000009238</v>
       </c>
     </row>
     <row r="13">
@@ -3989,32 +3461,32 @@
         <v>0.1428</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3782</v>
+        <v>0.954775</v>
       </c>
       <c r="C13" t="n">
-        <v>2.063080000056159</v>
+        <v>2.063080000082118</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1428</v>
+        <v>0.18225</v>
       </c>
       <c r="B14" t="n">
-        <v>0.52275</v>
+        <v>0.0245</v>
       </c>
       <c r="C14" t="n">
-        <v>2.063080000092306</v>
+        <v>2.063079999992706</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1428</v>
+        <v>0.18225</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.2035</v>
       </c>
       <c r="C15" t="n">
-        <v>2.063080000084855</v>
+        <v>2.063080000011534</v>
       </c>
     </row>
     <row r="16">
@@ -4022,10 +3494,10 @@
         <v>0.18225</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C16" t="n">
-        <v>2.063079999994331</v>
+        <v>2.063080000043641</v>
       </c>
     </row>
     <row r="17">
@@ -4033,43 +3505,43 @@
         <v>0.18225</v>
       </c>
       <c r="B17" t="n">
-        <v>0.221875</v>
+        <v>0.954775</v>
       </c>
       <c r="C17" t="n">
-        <v>2.063080000013992</v>
+        <v>2.063080000074556</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.18225</v>
+        <v>0.24025</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3782</v>
+        <v>0.0245</v>
       </c>
       <c r="C18" t="n">
-        <v>2.063080000043641</v>
+        <v>2.063079999977213</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.18225</v>
+        <v>0.24025</v>
       </c>
       <c r="B19" t="n">
-        <v>0.52275</v>
+        <v>0.2035</v>
       </c>
       <c r="C19" t="n">
-        <v>2.063080000078803</v>
+        <v>2.06307999999175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.18225</v>
+        <v>0.24025</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.5233</v>
       </c>
       <c r="C20" t="n">
-        <v>2.063080000076955</v>
+        <v>2.063080000055011</v>
       </c>
     </row>
     <row r="21">
@@ -4077,54 +3549,54 @@
         <v>0.24025</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.954775</v>
       </c>
       <c r="C21" t="n">
-        <v>2.063079999975868</v>
+        <v>2.063080000060125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04293</v>
+        <v>0.0245</v>
       </c>
       <c r="C22" t="n">
-        <v>2.063079999978309</v>
+        <v>2.063079999928954</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3782</v>
+        <v>0.2035</v>
       </c>
       <c r="C23" t="n">
-        <v>2.063080000022046</v>
+        <v>2.063079999926157</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B24" t="n">
-        <v>0.52275</v>
+        <v>0.3782</v>
       </c>
       <c r="C24" t="n">
-        <v>2.063080000054916</v>
+        <v>2.063079999946414</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.5233</v>
       </c>
       <c r="C25" t="n">
-        <v>2.063080000062401</v>
+        <v>2.063079999982613</v>
       </c>
     </row>
     <row r="26">
@@ -4132,571 +3604,571 @@
         <v>0.4228</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.954775</v>
       </c>
       <c r="C26" t="n">
-        <v>2.063079999929748</v>
+        <v>2.063080000005094</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4228</v>
+        <v>0.4768</v>
       </c>
       <c r="B27" t="n">
-        <v>0.04293</v>
+        <v>0.2035</v>
       </c>
       <c r="C27" t="n">
-        <v>2.063079999928384</v>
+        <v>2.06307999991143</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4228</v>
+        <v>0.4768</v>
       </c>
       <c r="B28" t="n">
-        <v>0.221875</v>
+        <v>0.3782</v>
       </c>
       <c r="C28" t="n">
-        <v>2.063079999926861</v>
+        <v>2.063079999928875</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4228</v>
+        <v>0.4768</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3782</v>
+        <v>0.954775</v>
       </c>
       <c r="C29" t="n">
-        <v>2.063079999946414</v>
+        <v>2.063079999990056</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4228</v>
+        <v>0.55415</v>
       </c>
       <c r="B30" t="n">
-        <v>0.52275</v>
+        <v>0.0245</v>
       </c>
       <c r="C30" t="n">
-        <v>2.063079999982483</v>
+        <v>2.063079999901914</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4228</v>
+        <v>0.55415</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.2035</v>
       </c>
       <c r="C31" t="n">
-        <v>2.063080000005029</v>
+        <v>2.063079999893683</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4768</v>
+        <v>0.55415</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C32" t="n">
-        <v>2.063079999915783</v>
+        <v>2.063079999912601</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.4768</v>
+        <v>0.55415</v>
       </c>
       <c r="B33" t="n">
-        <v>0.221875</v>
+        <v>0.5233</v>
       </c>
       <c r="C33" t="n">
-        <v>2.063079999911805</v>
+        <v>2.06307999994548</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.4768</v>
+        <v>0.5999</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3782</v>
+        <v>0.0245</v>
       </c>
       <c r="C34" t="n">
-        <v>2.063079999928875</v>
+        <v>2.063079999894946</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.4768</v>
+        <v>0.5999</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.2035</v>
       </c>
       <c r="C35" t="n">
-        <v>2.063079999989161</v>
+        <v>2.063079999884815</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.55415</v>
+        <v>0.5999</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.3782</v>
       </c>
       <c r="C36" t="n">
-        <v>2.063079999903759</v>
+        <v>2.063079999907423</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.55415</v>
+        <v>0.5999</v>
       </c>
       <c r="B37" t="n">
-        <v>0.04293</v>
+        <v>0.5233</v>
       </c>
       <c r="C37" t="n">
-        <v>2.063079999900559</v>
+        <v>2.063079999937207</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.55415</v>
+        <v>0.66415</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3782</v>
+        <v>0.2035</v>
       </c>
       <c r="C38" t="n">
-        <v>2.063079999912601</v>
+        <v>2.063079999879846</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.55415</v>
+        <v>0.66415</v>
       </c>
       <c r="B39" t="n">
-        <v>0.52275</v>
+        <v>0.3782</v>
       </c>
       <c r="C39" t="n">
-        <v>2.063079999945355</v>
+        <v>2.063079999902955</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.5999</v>
+        <v>0.66415</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.5233</v>
       </c>
       <c r="C40" t="n">
-        <v>2.063079999897072</v>
+        <v>2.063079999929184</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5999</v>
+        <v>0.66415</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04293</v>
+        <v>0.954775</v>
       </c>
       <c r="C41" t="n">
-        <v>2.063079999893382</v>
+        <v>2.063079999961487</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B42" t="n">
-        <v>0.221875</v>
+        <v>0.0245</v>
       </c>
       <c r="C42" t="n">
-        <v>2.063079999885325</v>
+        <v>2.063079999885466</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3782</v>
+        <v>0.2035</v>
       </c>
       <c r="C43" t="n">
-        <v>2.063079999907423</v>
+        <v>2.063079999882633</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B44" t="n">
-        <v>0.52275</v>
+        <v>0.3782</v>
       </c>
       <c r="C44" t="n">
-        <v>2.063079999937094</v>
+        <v>2.063079999901022</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.954775</v>
       </c>
       <c r="C45" t="n">
-        <v>2.063079999964025</v>
+        <v>2.063079999955554</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.0245</v>
       </c>
       <c r="C46" t="n">
-        <v>2.063079999890348</v>
+        <v>2.063079999889327</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B47" t="n">
-        <v>0.221875</v>
+        <v>0.2035</v>
       </c>
       <c r="C47" t="n">
-        <v>2.063079999880781</v>
+        <v>2.063079999888503</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B48" t="n">
         <v>0.3782</v>
       </c>
       <c r="C48" t="n">
-        <v>2.063079999902955</v>
+        <v>2.063079999901961</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B49" t="n">
-        <v>0.52275</v>
+        <v>0.5233</v>
       </c>
       <c r="C49" t="n">
-        <v>2.06307999992909</v>
+        <v>2.063079999920085</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.954775</v>
       </c>
       <c r="C50" t="n">
-        <v>2.063079999958686</v>
+        <v>2.063079999950826</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.0245</v>
       </c>
       <c r="C51" t="n">
-        <v>2.063079999887332</v>
+        <v>2.063079999894082</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B52" t="n">
-        <v>0.04293</v>
+        <v>0.2035</v>
       </c>
       <c r="C52" t="n">
-        <v>2.063079999884115</v>
+        <v>2.063079999893502</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B53" t="n">
         <v>0.3782</v>
       </c>
       <c r="C53" t="n">
-        <v>2.063079999901022</v>
+        <v>2.063079999903342</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.5233</v>
       </c>
       <c r="C54" t="n">
-        <v>2.063079999953154</v>
+        <v>2.063079999917823</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.85185</v>
+        <v>0.93315</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>0.954775</v>
       </c>
       <c r="C55" t="n">
-        <v>2.063079999890157</v>
+        <v>2.063079999947061</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.85185</v>
+        <v>0.0772</v>
       </c>
       <c r="B56" t="n">
-        <v>0.04293</v>
+        <v>0.1241</v>
       </c>
       <c r="C56" t="n">
-        <v>2.063079999888769</v>
+        <v>2.063080000031034</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.85185</v>
+        <v>0.403</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221875</v>
+        <v>0.1241</v>
       </c>
       <c r="C57" t="n">
-        <v>2.063079999889243</v>
+        <v>2.063079999931952</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.85185</v>
+        <v>0.58605</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3782</v>
+        <v>0.1241</v>
       </c>
       <c r="C58" t="n">
-        <v>2.063079999901961</v>
+        <v>2.063079999889782</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.85185</v>
+        <v>0.8113</v>
       </c>
       <c r="B59" t="n">
-        <v>0.52275</v>
+        <v>0.1241</v>
       </c>
       <c r="C59" t="n">
-        <v>2.063079999920014</v>
+        <v>2.063079999884249</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.85185</v>
+        <v>0.9823</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="C60" t="n">
-        <v>2.063079999948689</v>
+        <v>2.063079999895997</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.93315</v>
+        <v>0.403</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>0.1727</v>
       </c>
       <c r="C61" t="n">
-        <v>2.063079999894067</v>
+        <v>2.063079999931653</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.93315</v>
+        <v>0.58605</v>
       </c>
       <c r="B62" t="n">
-        <v>0.221875</v>
+        <v>0.1727</v>
       </c>
       <c r="C62" t="n">
-        <v>2.063079999893948</v>
+        <v>2.063079999887709</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.93315</v>
+        <v>0.9823</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3782</v>
+        <v>0.1727</v>
       </c>
       <c r="C63" t="n">
-        <v>2.063079999903342</v>
+        <v>2.063079999895582</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.93315</v>
+        <v>0.0772</v>
       </c>
       <c r="B64" t="n">
-        <v>0.52275</v>
+        <v>0.26915</v>
       </c>
       <c r="C64" t="n">
-        <v>2.063079999917766</v>
+        <v>2.06308000005077</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.93315</v>
+        <v>0.403</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.26915</v>
       </c>
       <c r="C65" t="n">
-        <v>2.063079999945028</v>
+        <v>2.063079999936889</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>0.58605</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1241</v>
+        <v>0.26915</v>
       </c>
       <c r="C66" t="n">
-        <v>2.063080000044888</v>
+        <v>2.063079999892258</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.09088</v>
+        <v>0.8113</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1241</v>
+        <v>0.26915</v>
       </c>
       <c r="C67" t="n">
-        <v>2.063080000027949</v>
+        <v>2.063079999889948</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.404075</v>
+        <v>0.9823</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1241</v>
+        <v>0.26915</v>
       </c>
       <c r="C68" t="n">
-        <v>2.063079999931639</v>
+        <v>2.063079999897665</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.58605</v>
+        <v>0.403</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1241</v>
+        <v>0.3611</v>
       </c>
       <c r="C69" t="n">
-        <v>2.063079999889782</v>
+        <v>2.063079999950245</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.804225</v>
+        <v>0.58605</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1241</v>
+        <v>0.3611</v>
       </c>
       <c r="C70" t="n">
-        <v>2.06307999988373</v>
+        <v>2.063079999905785</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.97356</v>
+        <v>0.9823</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1241</v>
+        <v>0.3611</v>
       </c>
       <c r="C71" t="n">
-        <v>2.063079999895627</v>
+        <v>2.063079999902841</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>0.0772</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C72" t="n">
-        <v>2.063080000051388</v>
+        <v>2.063080000089716</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.09088</v>
+        <v>0.403</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C73" t="n">
-        <v>2.063080000033787</v>
+        <v>2.063079999971892</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.404075</v>
+        <v>0.58605</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C74" t="n">
-        <v>2.063079999931323</v>
+        <v>2.063079999923912</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.58605</v>
+        <v>0.8113</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C75" t="n">
-        <v>2.063079999887709</v>
+        <v>2.063079999911198</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>0.9823</v>
       </c>
       <c r="B76" t="n">
-        <v>0.26915</v>
+        <v>0.452</v>
       </c>
       <c r="C76" t="n">
-        <v>2.063080000065641</v>
+        <v>2.063079999910145</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.404075</v>
+        <v>0.403</v>
       </c>
       <c r="B77" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>2.063079999936492</v>
+        <v>2.063080000012297</v>
       </c>
     </row>
     <row r="78">
@@ -4704,263 +4176,87 @@
         <v>0.58605</v>
       </c>
       <c r="B78" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>2.063079999892258</v>
+        <v>2.063079999959249</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.804225</v>
+        <v>0.8113</v>
       </c>
       <c r="B79" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>2.063079999889611</v>
+        <v>2.063079999935956</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.97356</v>
+        <v>0.9823</v>
       </c>
       <c r="B80" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>2.063079999897362</v>
+        <v>2.063079999928166</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>0.0772</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>2.063080000081801</v>
+        <v>2.063080000096438</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.09088</v>
+        <v>0.403</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>2.063080000065619</v>
+        <v>2.063080000011456</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.404075</v>
+        <v>0.58605</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>2.063079999949826</v>
+        <v>2.063079999964484</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.58605</v>
+        <v>0.8113</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>2.063079999905785</v>
+        <v>2.063079999949709</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.804225</v>
+        <v>0.9823</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>2.063079999899169</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>0.97356</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.3611</v>
-      </c>
-      <c r="C86" t="n">
-        <v>2.063079999902684</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>0</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2.063080000098975</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>0.09088</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2.06308000008734</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>0.58605</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C89" t="n">
-        <v>2.063079999923912</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>0.804225</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C90" t="n">
-        <v>2.063079999911287</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>0</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C91" t="n">
-        <v>2.063080000116857</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>0.404075</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C92" t="n">
-        <v>2.063080000011904</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>0.58605</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C93" t="n">
-        <v>2.063079999959249</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>0.804225</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C94" t="n">
-        <v>2.063079999936245</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>0.97356</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2.063079999928608</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>0</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C96" t="n">
-        <v>2.063080000105276</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>0.09088</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2.063080000094506</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>0.404075</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C98" t="n">
-        <v>2.063080000011123</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>0.58605</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2.063079999964484</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>0.804225</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C100" t="n">
-        <v>2.06307999995004</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>0.97356</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C101" t="n">
-        <v>2.063079999942414</v>
+        <v>2.063079999942021</v>
       </c>
     </row>
   </sheetData>
@@ -4974,7 +4270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5004,10 +4300,10 @@
         <v>0.0342</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04293</v>
+        <v>0.2035</v>
       </c>
       <c r="C2" t="n">
-        <v>2.168316751385647</v>
+        <v>2.226501124513216</v>
       </c>
     </row>
     <row r="3">
@@ -5015,10 +4311,10 @@
         <v>0.0342</v>
       </c>
       <c r="B3" t="n">
-        <v>0.221875</v>
+        <v>0.3782</v>
       </c>
       <c r="C3" t="n">
-        <v>2.231218892108027</v>
+        <v>2.331303836779054</v>
       </c>
     </row>
     <row r="4">
@@ -5026,21 +4322,21 @@
         <v>0.0342</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3782</v>
+        <v>0.5233</v>
       </c>
       <c r="C4" t="n">
-        <v>2.331303836779054</v>
+        <v>2.506500789310628</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0342</v>
+        <v>0.08790000000000001</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.0245</v>
       </c>
       <c r="C5" t="n">
-        <v>2.263693225016762</v>
+        <v>2.137724544169228</v>
       </c>
     </row>
     <row r="6">
@@ -5048,10 +4344,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.2035</v>
       </c>
       <c r="C6" t="n">
-        <v>2.125407104559222</v>
+        <v>2.2073008147417</v>
       </c>
     </row>
     <row r="7">
@@ -5059,10 +4355,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C7" t="n">
-        <v>2.148878071649825</v>
+        <v>2.320258907497845</v>
       </c>
     </row>
     <row r="8">
@@ -5070,10 +4366,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B8" t="n">
-        <v>0.221875</v>
+        <v>0.5233</v>
       </c>
       <c r="C8" t="n">
-        <v>2.209462469045532</v>
+        <v>2.567924135237001</v>
       </c>
     </row>
     <row r="9">
@@ -5081,10 +4377,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3782</v>
+        <v>0.954775</v>
       </c>
       <c r="C9" t="n">
-        <v>2.320258907497845</v>
+        <v>2.242146128414412</v>
       </c>
     </row>
     <row r="10">
@@ -5092,10 +4388,10 @@
         <v>0.1428</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.2035</v>
       </c>
       <c r="C10" t="n">
-        <v>2.093716411902944</v>
+        <v>2.161718579768639</v>
       </c>
     </row>
     <row r="11">
@@ -5103,10 +4399,10 @@
         <v>0.1428</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C11" t="n">
-        <v>2.110475906276194</v>
+        <v>2.283953605587226</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +4410,10 @@
         <v>0.1428</v>
       </c>
       <c r="B12" t="n">
-        <v>0.221875</v>
+        <v>0.5233</v>
       </c>
       <c r="C12" t="n">
-        <v>2.164693177566308</v>
+        <v>2.590541771728895</v>
       </c>
     </row>
     <row r="13">
@@ -5125,32 +4421,32 @@
         <v>0.1428</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3782</v>
+        <v>0.954775</v>
       </c>
       <c r="C13" t="n">
-        <v>2.283953605587226</v>
+        <v>2.238438149313466</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1428</v>
+        <v>0.18225</v>
       </c>
       <c r="B14" t="n">
-        <v>0.52275</v>
+        <v>0.0245</v>
       </c>
       <c r="C14" t="n">
-        <v>2.590900385680156</v>
+        <v>2.071489070296976</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1428</v>
+        <v>0.18225</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.2035</v>
       </c>
       <c r="C15" t="n">
-        <v>2.252040820858958</v>
+        <v>2.114510628785234</v>
       </c>
     </row>
     <row r="16">
@@ -5158,10 +4454,10 @@
         <v>0.18225</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C16" t="n">
-        <v>2.076286351254156</v>
+        <v>2.238704729602485</v>
       </c>
     </row>
     <row r="17">
@@ -5169,43 +4465,43 @@
         <v>0.18225</v>
       </c>
       <c r="B17" t="n">
-        <v>0.221875</v>
+        <v>0.954775</v>
       </c>
       <c r="C17" t="n">
-        <v>2.119098584314079</v>
+        <v>2.233464248143568</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.18225</v>
+        <v>0.24025</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3782</v>
+        <v>0.0245</v>
       </c>
       <c r="C18" t="n">
-        <v>2.238704729602485</v>
+        <v>2.021527336716096</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.18225</v>
+        <v>0.24025</v>
       </c>
       <c r="B19" t="n">
-        <v>0.52275</v>
+        <v>0.2035</v>
       </c>
       <c r="C19" t="n">
-        <v>2.498325464585417</v>
+        <v>2.034275502712575</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.18225</v>
+        <v>0.24025</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.5233</v>
       </c>
       <c r="C20" t="n">
-        <v>2.235302901162535</v>
+        <v>2.323503732210833</v>
       </c>
     </row>
     <row r="21">
@@ -5213,54 +4509,54 @@
         <v>0.24025</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.954775</v>
       </c>
       <c r="C21" t="n">
-        <v>2.020870748401141</v>
+        <v>2.169672636163774</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04293</v>
+        <v>0.0245</v>
       </c>
       <c r="C22" t="n">
-        <v>2.022172261578191</v>
+        <v>1.869459410559928</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3782</v>
+        <v>0.2035</v>
       </c>
       <c r="C23" t="n">
-        <v>2.146670982452678</v>
+        <v>1.736269334498696</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B24" t="n">
-        <v>0.52275</v>
+        <v>0.3782</v>
       </c>
       <c r="C24" t="n">
-        <v>2.323157498069699</v>
+        <v>1.76623598629156</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.5233</v>
       </c>
       <c r="C25" t="n">
-        <v>2.178256717117799</v>
+        <v>2.023591505050506</v>
       </c>
     </row>
     <row r="26">
@@ -5268,571 +4564,571 @@
         <v>0.4228</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.954775</v>
       </c>
       <c r="C26" t="n">
-        <v>1.882433021297132</v>
+        <v>1.901544846027557</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4228</v>
+        <v>0.4768</v>
       </c>
       <c r="B27" t="n">
-        <v>0.04293</v>
+        <v>0.2035</v>
       </c>
       <c r="C27" t="n">
-        <v>1.859058356692546</v>
+        <v>1.69931963089532</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4228</v>
+        <v>0.4768</v>
       </c>
       <c r="B28" t="n">
-        <v>0.221875</v>
+        <v>0.3782</v>
       </c>
       <c r="C28" t="n">
-        <v>1.728066110687417</v>
+        <v>1.69408121578013</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4228</v>
+        <v>0.4768</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3782</v>
+        <v>0.954775</v>
       </c>
       <c r="C29" t="n">
-        <v>1.76623598629156</v>
+        <v>1.832174363974681</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4228</v>
+        <v>0.55415</v>
       </c>
       <c r="B30" t="n">
-        <v>0.52275</v>
+        <v>0.0245</v>
       </c>
       <c r="C30" t="n">
-        <v>2.022798113444495</v>
+        <v>1.793444088774914</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4228</v>
+        <v>0.55415</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.2035</v>
       </c>
       <c r="C31" t="n">
-        <v>1.906429856648095</v>
+        <v>1.63248669780972</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4768</v>
+        <v>0.55415</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C32" t="n">
-        <v>1.821363025790216</v>
+        <v>1.689010465916765</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.4768</v>
+        <v>0.55415</v>
       </c>
       <c r="B33" t="n">
-        <v>0.221875</v>
+        <v>0.5233</v>
       </c>
       <c r="C33" t="n">
-        <v>1.686864682376389</v>
+        <v>1.935870835923227</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.4768</v>
+        <v>0.5999</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3782</v>
+        <v>0.0245</v>
       </c>
       <c r="C34" t="n">
-        <v>1.69408121578013</v>
+        <v>1.775930587232044</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.4768</v>
+        <v>0.5999</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.2035</v>
       </c>
       <c r="C35" t="n">
-        <v>1.837196834730418</v>
+        <v>1.557138466216281</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.55415</v>
+        <v>0.5999</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.3782</v>
       </c>
       <c r="C36" t="n">
-        <v>1.813598714676333</v>
+        <v>1.731376368719614</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.55415</v>
+        <v>0.5999</v>
       </c>
       <c r="B37" t="n">
-        <v>0.04293</v>
+        <v>0.5233</v>
       </c>
       <c r="C37" t="n">
-        <v>1.777541220612636</v>
+        <v>1.919346582235673</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.55415</v>
+        <v>0.66415</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3782</v>
+        <v>0.2035</v>
       </c>
       <c r="C38" t="n">
-        <v>1.689010465916765</v>
+        <v>1.598832692414084</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.55415</v>
+        <v>0.66415</v>
       </c>
       <c r="B39" t="n">
-        <v>0.52275</v>
+        <v>0.3782</v>
       </c>
       <c r="C39" t="n">
-        <v>1.934992130683477</v>
+        <v>1.780434675160807</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.5999</v>
+        <v>0.66415</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.5233</v>
       </c>
       <c r="C40" t="n">
-        <v>1.799071017535967</v>
+        <v>1.925208887391977</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5999</v>
+        <v>0.66415</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04293</v>
+        <v>0.954775</v>
       </c>
       <c r="C41" t="n">
-        <v>1.757571266487441</v>
+        <v>1.875850372587548</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B42" t="n">
-        <v>0.221875</v>
+        <v>0.0245</v>
       </c>
       <c r="C42" t="n">
-        <v>1.543291087659852</v>
+        <v>1.815399758790046</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3782</v>
+        <v>0.2035</v>
       </c>
       <c r="C43" t="n">
-        <v>1.731376368719614</v>
+        <v>1.755804916198903</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B44" t="n">
-        <v>0.52275</v>
+        <v>0.3782</v>
       </c>
       <c r="C44" t="n">
-        <v>1.918726527297347</v>
+        <v>1.853971956008259</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.954775</v>
       </c>
       <c r="C45" t="n">
-        <v>1.788424400530165</v>
+        <v>1.940164723451634</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.0245</v>
       </c>
       <c r="C46" t="n">
-        <v>1.792335825073571</v>
+        <v>1.91726726458631</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B47" t="n">
-        <v>0.221875</v>
+        <v>0.2035</v>
       </c>
       <c r="C47" t="n">
-        <v>1.597703690826837</v>
+        <v>1.87540601512761</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B48" t="n">
         <v>0.3782</v>
       </c>
       <c r="C48" t="n">
-        <v>1.780434675160807</v>
+        <v>1.919283924140429</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B49" t="n">
-        <v>0.52275</v>
+        <v>0.5233</v>
       </c>
       <c r="C49" t="n">
-        <v>1.924760940105428</v>
+        <v>2.016416469969325</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.954775</v>
       </c>
       <c r="C50" t="n">
-        <v>1.865225879636704</v>
+        <v>1.982578255860592</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.0245</v>
       </c>
       <c r="C51" t="n">
-        <v>1.836188234613136</v>
+        <v>2.015323899362615</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B52" t="n">
-        <v>0.04293</v>
+        <v>0.2035</v>
       </c>
       <c r="C52" t="n">
-        <v>1.798360580710857</v>
+        <v>1.954235661373677</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B53" t="n">
         <v>0.3782</v>
       </c>
       <c r="C53" t="n">
-        <v>1.853971956008259</v>
+        <v>1.96124793241348</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.5233</v>
       </c>
       <c r="C54" t="n">
-        <v>1.941415253810925</v>
+        <v>2.019130703121163</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.85185</v>
+        <v>0.93315</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>0.954775</v>
       </c>
       <c r="C55" t="n">
-        <v>1.922744469473237</v>
+        <v>2.005348592426284</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.85185</v>
+        <v>0.0772</v>
       </c>
       <c r="B56" t="n">
-        <v>0.04293</v>
+        <v>0.1241</v>
       </c>
       <c r="C56" t="n">
-        <v>1.912675672292989</v>
+        <v>2.218317135592689</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.85185</v>
+        <v>0.403</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221875</v>
+        <v>0.1241</v>
       </c>
       <c r="C57" t="n">
-        <v>1.875320916013972</v>
+        <v>1.823831985750723</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.85185</v>
+        <v>0.58605</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3782</v>
+        <v>0.1241</v>
       </c>
       <c r="C58" t="n">
-        <v>1.919283924140429</v>
+        <v>1.680578946861308</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.85185</v>
+        <v>0.8113</v>
       </c>
       <c r="B59" t="n">
-        <v>0.52275</v>
+        <v>0.1241</v>
       </c>
       <c r="C59" t="n">
-        <v>2.015942703927166</v>
+        <v>1.831880686685249</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.85185</v>
+        <v>0.9823</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="C60" t="n">
-        <v>1.988339526600633</v>
+        <v>2.040371123358963</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.93315</v>
+        <v>0.403</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>0.1727</v>
       </c>
       <c r="C61" t="n">
-        <v>2.003409654861735</v>
+        <v>1.778936059063299</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.93315</v>
+        <v>0.58605</v>
       </c>
       <c r="B62" t="n">
-        <v>0.221875</v>
+        <v>0.1727</v>
       </c>
       <c r="C62" t="n">
-        <v>1.94968803209374</v>
+        <v>1.622964872480193</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.93315</v>
+        <v>0.9823</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3782</v>
+        <v>0.1727</v>
       </c>
       <c r="C63" t="n">
-        <v>1.96124793241348</v>
+        <v>2.000459006220967</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.93315</v>
+        <v>0.0772</v>
       </c>
       <c r="B64" t="n">
-        <v>0.52275</v>
+        <v>0.26915</v>
       </c>
       <c r="C64" t="n">
-        <v>2.018880698235714</v>
+        <v>2.232250570415685</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.93315</v>
+        <v>0.403</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.26915</v>
       </c>
       <c r="C65" t="n">
-        <v>2.011788326022626</v>
+        <v>1.744345566711114</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>0.58605</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1241</v>
+        <v>0.26915</v>
       </c>
       <c r="C66" t="n">
-        <v>2.209671245553203</v>
+        <v>1.617568704101675</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.09088</v>
+        <v>0.8113</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1241</v>
+        <v>0.26915</v>
       </c>
       <c r="C67" t="n">
-        <v>2.212143198452498</v>
+        <v>1.840766505813429</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.404075</v>
+        <v>0.9823</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1241</v>
+        <v>0.26915</v>
       </c>
       <c r="C68" t="n">
-        <v>1.822751666251984</v>
+        <v>1.972361639225487</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.58605</v>
+        <v>0.403</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1241</v>
+        <v>0.3611</v>
       </c>
       <c r="C69" t="n">
-        <v>1.680578946861308</v>
+        <v>1.779871952931698</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.804225</v>
+        <v>0.58605</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1241</v>
+        <v>0.3611</v>
       </c>
       <c r="C70" t="n">
-        <v>1.821369444731039</v>
+        <v>1.703979140468893</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.97356</v>
+        <v>0.9823</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1241</v>
+        <v>0.3611</v>
       </c>
       <c r="C71" t="n">
-        <v>2.035876305986275</v>
+        <v>1.976827611352888</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>0.0772</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C72" t="n">
-        <v>2.223225702022947</v>
+        <v>2.433004211687297</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.09088</v>
+        <v>0.403</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C73" t="n">
-        <v>2.209317725648107</v>
+        <v>1.927224499429498</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.404075</v>
+        <v>0.58605</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C74" t="n">
-        <v>1.777928222169255</v>
+        <v>1.817779828171676</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.58605</v>
+        <v>0.8113</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C75" t="n">
-        <v>1.622964872480193</v>
+        <v>1.943485146575317</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>0.9823</v>
       </c>
       <c r="B76" t="n">
-        <v>0.26915</v>
+        <v>0.452</v>
       </c>
       <c r="C76" t="n">
-        <v>2.25726854358761</v>
+        <v>1.998287164303588</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.404075</v>
+        <v>0.403</v>
       </c>
       <c r="B77" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>1.742247610241624</v>
+        <v>2.140138667811638</v>
       </c>
     </row>
     <row r="78">
@@ -5840,263 +5136,87 @@
         <v>0.58605</v>
       </c>
       <c r="B78" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>1.617568704101675</v>
+        <v>1.984591535836252</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.804225</v>
+        <v>0.8113</v>
       </c>
       <c r="B79" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>1.833300438119988</v>
+        <v>2.047995045166493</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.97356</v>
+        <v>0.9823</v>
       </c>
       <c r="B80" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>1.968075912083421</v>
+        <v>2.060010348390397</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>0.0772</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>2.316096756585077</v>
+        <v>2.270761749509604</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.09088</v>
+        <v>0.403</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>2.298672939687136</v>
+        <v>1.935329164430459</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.404075</v>
+        <v>0.58605</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>1.777556603416817</v>
+        <v>1.753344862142884</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.58605</v>
+        <v>0.8113</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>1.703979140468893</v>
+        <v>1.973793859732561</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.804225</v>
+        <v>0.9823</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>1.877541717866345</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>0.97356</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.3611</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1.973611752425336</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>0</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2.398256501598474</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>0.09088</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2.435818115917625</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>0.58605</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1.817779828171676</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>0.804225</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1.9397920130971</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>0</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C91" t="n">
-        <v>2.433023795832745</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>0.404075</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C92" t="n">
-        <v>2.138754074626611</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>0.58605</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1.984591535836252</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>0.804225</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C94" t="n">
-        <v>2.04342183156868</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>0.97356</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2.062614218547321</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>0</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C96" t="n">
-        <v>2.27221901013668</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>0.09088</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2.269552483764617</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>0.404075</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1.934244146517158</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>0.58605</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1.753344862142884</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>0.804225</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.970196764046868</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>0.97356</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C101" t="n">
-        <v>2.021565874848115</v>
+        <v>2.022577197168432</v>
       </c>
     </row>
   </sheetData>
@@ -6110,7 +5230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6140,10 +5260,10 @@
         <v>0.0342</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04293</v>
+        <v>0.2035</v>
       </c>
       <c r="C2" t="n">
-        <v>2.274008611817096</v>
+        <v>2.363705066184486</v>
       </c>
     </row>
     <row r="3">
@@ -6151,10 +5271,10 @@
         <v>0.0342</v>
       </c>
       <c r="B3" t="n">
-        <v>0.221875</v>
+        <v>0.3782</v>
       </c>
       <c r="C3" t="n">
-        <v>2.365431070479977</v>
+        <v>2.563267257206667</v>
       </c>
     </row>
     <row r="4">
@@ -6162,21 +5282,21 @@
         <v>0.0342</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3782</v>
+        <v>0.5233</v>
       </c>
       <c r="C4" t="n">
-        <v>2.563267257206667</v>
+        <v>3.025906070232015</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0342</v>
+        <v>0.08790000000000001</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.0245</v>
       </c>
       <c r="C5" t="n">
-        <v>2.295504130889652</v>
+        <v>2.265373769282263</v>
       </c>
     </row>
     <row r="6">
@@ -6184,10 +5304,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.2035</v>
       </c>
       <c r="C6" t="n">
-        <v>2.237689224447388</v>
+        <v>2.386258935087334</v>
       </c>
     </row>
     <row r="7">
@@ -6195,10 +5315,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C7" t="n">
-        <v>2.289531681947075</v>
+        <v>2.600594677457076</v>
       </c>
     </row>
     <row r="8">
@@ -6206,10 +5326,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B8" t="n">
-        <v>0.221875</v>
+        <v>0.5233</v>
       </c>
       <c r="C8" t="n">
-        <v>2.380636590897113</v>
+        <v>3.166466583733175</v>
       </c>
     </row>
     <row r="9">
@@ -6217,10 +5337,10 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3782</v>
+        <v>0.954775</v>
       </c>
       <c r="C9" t="n">
-        <v>2.600594677457076</v>
+        <v>2.355095589255414</v>
       </c>
     </row>
     <row r="10">
@@ -6228,10 +5348,10 @@
         <v>0.1428</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.2035</v>
       </c>
       <c r="C10" t="n">
-        <v>2.215007343461011</v>
+        <v>2.330472289067541</v>
       </c>
     </row>
     <row r="11">
@@ -6239,10 +5359,10 @@
         <v>0.1428</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C11" t="n">
-        <v>2.254891544792339</v>
+        <v>2.565383598345694</v>
       </c>
     </row>
     <row r="12">
@@ -6250,10 +5370,10 @@
         <v>0.1428</v>
       </c>
       <c r="B12" t="n">
-        <v>0.221875</v>
+        <v>0.5233</v>
       </c>
       <c r="C12" t="n">
-        <v>2.325771930437873</v>
+        <v>3.185438472708539</v>
       </c>
     </row>
     <row r="13">
@@ -6261,32 +5381,32 @@
         <v>0.1428</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3782</v>
+        <v>0.954775</v>
       </c>
       <c r="C13" t="n">
-        <v>2.565383598345694</v>
+        <v>2.454148687069097</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1428</v>
+        <v>0.18225</v>
       </c>
       <c r="B14" t="n">
-        <v>0.52275</v>
+        <v>0.0245</v>
       </c>
       <c r="C14" t="n">
-        <v>3.185197432983775</v>
+        <v>2.19336225276597</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1428</v>
+        <v>0.18225</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.2035</v>
       </c>
       <c r="C15" t="n">
-        <v>2.441035327872059</v>
+        <v>2.241834961347674</v>
       </c>
     </row>
     <row r="16">
@@ -6294,10 +5414,10 @@
         <v>0.18225</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C16" t="n">
-        <v>2.204060683724766</v>
+        <v>2.483517828618376</v>
       </c>
     </row>
     <row r="17">
@@ -6305,43 +5425,43 @@
         <v>0.18225</v>
       </c>
       <c r="B17" t="n">
-        <v>0.221875</v>
+        <v>0.954775</v>
       </c>
       <c r="C17" t="n">
-        <v>2.240992528513241</v>
+        <v>2.499919843663081</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.18225</v>
+        <v>0.24025</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3782</v>
+        <v>0.0245</v>
       </c>
       <c r="C18" t="n">
-        <v>2.483517828618376</v>
+        <v>2.109765694910278</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.18225</v>
+        <v>0.24025</v>
       </c>
       <c r="B19" t="n">
-        <v>0.52275</v>
+        <v>0.2035</v>
       </c>
       <c r="C19" t="n">
-        <v>3.060716817656279</v>
+        <v>2.070627416736835</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.18225</v>
+        <v>0.24025</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.5233</v>
       </c>
       <c r="C20" t="n">
-        <v>2.442792690127698</v>
+        <v>2.748743376531634</v>
       </c>
     </row>
     <row r="21">
@@ -6349,54 +5469,54 @@
         <v>0.24025</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.954775</v>
       </c>
       <c r="C21" t="n">
-        <v>2.111233542159078</v>
+        <v>2.349407575815704</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04293</v>
+        <v>0.0245</v>
       </c>
       <c r="C22" t="n">
-        <v>2.108440140915205</v>
+        <v>1.781729228529051</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3782</v>
+        <v>0.2035</v>
       </c>
       <c r="C23" t="n">
-        <v>2.282648333125084</v>
+        <v>1.338785684008321</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B24" t="n">
-        <v>0.52275</v>
+        <v>0.3782</v>
       </c>
       <c r="C24" t="n">
-        <v>2.747814981428186</v>
+        <v>1.285144798856328</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.24025</v>
+        <v>0.4228</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.5233</v>
       </c>
       <c r="C25" t="n">
-        <v>2.308661542111601</v>
+        <v>2.129399877627368</v>
       </c>
     </row>
     <row r="26">
@@ -6404,571 +5524,571 @@
         <v>0.4228</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.954775</v>
       </c>
       <c r="C26" t="n">
-        <v>1.82901761146955</v>
+        <v>1.562224068097517</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4228</v>
+        <v>0.4768</v>
       </c>
       <c r="B27" t="n">
-        <v>0.04293</v>
+        <v>0.2035</v>
       </c>
       <c r="C27" t="n">
-        <v>1.743700047433411</v>
+        <v>1.132196375920901</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4228</v>
+        <v>0.4768</v>
       </c>
       <c r="B28" t="n">
-        <v>0.221875</v>
+        <v>0.3782</v>
       </c>
       <c r="C28" t="n">
-        <v>1.283124678083811</v>
+        <v>1.069882250502086</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4228</v>
+        <v>0.4768</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3782</v>
+        <v>0.954775</v>
       </c>
       <c r="C29" t="n">
-        <v>1.285144798856328</v>
+        <v>1.352942171771912</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4228</v>
+        <v>0.55415</v>
       </c>
       <c r="B30" t="n">
-        <v>0.52275</v>
+        <v>0.0245</v>
       </c>
       <c r="C30" t="n">
-        <v>2.126901089289239</v>
+        <v>1.544289110026509</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4228</v>
+        <v>0.55415</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.2035</v>
       </c>
       <c r="C31" t="n">
-        <v>1.531474193835769</v>
+        <v>0.8819307205284183</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4768</v>
+        <v>0.55415</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04293</v>
+        <v>0.3782</v>
       </c>
       <c r="C32" t="n">
-        <v>1.629662159223081</v>
+        <v>1.093405055991572</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.4768</v>
+        <v>0.55415</v>
       </c>
       <c r="B33" t="n">
-        <v>0.221875</v>
+        <v>0.5233</v>
       </c>
       <c r="C33" t="n">
-        <v>1.073552250741911</v>
+        <v>2.004386911991635</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.4768</v>
+        <v>0.5999</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3782</v>
+        <v>0.0245</v>
       </c>
       <c r="C34" t="n">
-        <v>1.069882250502086</v>
+        <v>1.482934470064921</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.4768</v>
+        <v>0.5999</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.2035</v>
       </c>
       <c r="C35" t="n">
-        <v>1.312438300812631</v>
+        <v>0.7189831607418965</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.55415</v>
+        <v>0.5999</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.3782</v>
       </c>
       <c r="C36" t="n">
-        <v>1.627276768499476</v>
+        <v>1.238927522030381</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.55415</v>
+        <v>0.5999</v>
       </c>
       <c r="B37" t="n">
-        <v>0.04293</v>
+        <v>0.5233</v>
       </c>
       <c r="C37" t="n">
-        <v>1.478043434305892</v>
+        <v>1.960003311985058</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.55415</v>
+        <v>0.66415</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3782</v>
+        <v>0.2035</v>
       </c>
       <c r="C38" t="n">
-        <v>1.093405055991572</v>
+        <v>0.8454414113224303</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.55415</v>
+        <v>0.66415</v>
       </c>
       <c r="B39" t="n">
-        <v>0.52275</v>
+        <v>0.3782</v>
       </c>
       <c r="C39" t="n">
-        <v>2.001645615278848</v>
+        <v>1.449760015367086</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.5999</v>
+        <v>0.66415</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.5233</v>
       </c>
       <c r="C40" t="n">
-        <v>1.579006437547493</v>
+        <v>1.989980057550932</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5999</v>
+        <v>0.66415</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04293</v>
+        <v>0.954775</v>
       </c>
       <c r="C41" t="n">
-        <v>1.406359886586172</v>
+        <v>1.52916021506036</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B42" t="n">
-        <v>0.221875</v>
+        <v>0.0245</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6892829284099771</v>
+        <v>1.678902193123905</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3782</v>
+        <v>0.2035</v>
       </c>
       <c r="C43" t="n">
-        <v>1.238927522030381</v>
+        <v>1.409375624979967</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B44" t="n">
-        <v>0.52275</v>
+        <v>0.3782</v>
       </c>
       <c r="C44" t="n">
-        <v>1.957928472173641</v>
+        <v>1.768053069970853</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.5999</v>
+        <v>0.7583</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.954775</v>
       </c>
       <c r="C45" t="n">
-        <v>1.172958318592388</v>
+        <v>1.84822228740364</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.0245</v>
       </c>
       <c r="C46" t="n">
-        <v>1.56511981043306</v>
+        <v>2.105359169698384</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B47" t="n">
-        <v>0.221875</v>
+        <v>0.2035</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8485256332025808</v>
+        <v>1.917453673604611</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B48" t="n">
         <v>0.3782</v>
       </c>
       <c r="C48" t="n">
-        <v>1.449760015367086</v>
+        <v>2.03189644647972</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B49" t="n">
-        <v>0.52275</v>
+        <v>0.5233</v>
       </c>
       <c r="C49" t="n">
-        <v>1.988511952456272</v>
+        <v>2.301772734198174</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.66415</v>
+        <v>0.85185</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.954775</v>
       </c>
       <c r="C50" t="n">
-        <v>1.477453778319691</v>
+        <v>2.057721367754315</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.0245</v>
       </c>
       <c r="C51" t="n">
-        <v>1.759826463475274</v>
+        <v>2.470731904643684</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B52" t="n">
-        <v>0.04293</v>
+        <v>0.2035</v>
       </c>
       <c r="C52" t="n">
-        <v>1.613987657418809</v>
+        <v>2.231394435694454</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B53" t="n">
         <v>0.3782</v>
       </c>
       <c r="C53" t="n">
-        <v>1.768053069970853</v>
+        <v>2.179785983783646</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.7583</v>
+        <v>0.93315</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.5233</v>
       </c>
       <c r="C54" t="n">
-        <v>1.855376892315118</v>
+        <v>2.334677114397678</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.85185</v>
+        <v>0.93315</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>0.954775</v>
       </c>
       <c r="C55" t="n">
-        <v>2.123737632376996</v>
+        <v>2.15438714818306</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.85185</v>
+        <v>0.0772</v>
       </c>
       <c r="B56" t="n">
-        <v>0.04293</v>
+        <v>0.1241</v>
       </c>
       <c r="C56" t="n">
-        <v>2.088355354164629</v>
+        <v>2.406498192920074</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.85185</v>
+        <v>0.403</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221875</v>
+        <v>0.1241</v>
       </c>
       <c r="C57" t="n">
-        <v>1.911964257639078</v>
+        <v>1.61590905622507</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.85185</v>
+        <v>0.58605</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3782</v>
+        <v>0.1241</v>
       </c>
       <c r="C58" t="n">
-        <v>2.03189644647972</v>
+        <v>1.083964565712836</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.85185</v>
+        <v>0.8113</v>
       </c>
       <c r="B59" t="n">
-        <v>0.52275</v>
+        <v>0.1241</v>
       </c>
       <c r="C59" t="n">
-        <v>2.3006502490647</v>
+        <v>1.74892474303182</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.85185</v>
+        <v>0.9823</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.1241</v>
       </c>
       <c r="C60" t="n">
-        <v>2.089364453962446</v>
+        <v>2.545392471192744</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.93315</v>
+        <v>0.403</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>0.1727</v>
       </c>
       <c r="C61" t="n">
-        <v>2.429756522567438</v>
+        <v>1.501868744888329</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.93315</v>
+        <v>0.58605</v>
       </c>
       <c r="B62" t="n">
-        <v>0.221875</v>
+        <v>0.1727</v>
       </c>
       <c r="C62" t="n">
-        <v>2.20612686083718</v>
+        <v>0.8770780149541734</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.93315</v>
+        <v>0.9823</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3782</v>
+        <v>0.1727</v>
       </c>
       <c r="C63" t="n">
-        <v>2.179785983783646</v>
+        <v>2.404332352784131</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.93315</v>
+        <v>0.0772</v>
       </c>
       <c r="B64" t="n">
-        <v>0.52275</v>
+        <v>0.26915</v>
       </c>
       <c r="C64" t="n">
-        <v>2.33395841571299</v>
+        <v>2.396692796096619</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.93315</v>
+        <v>0.403</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9136874999999999</v>
+        <v>0.26915</v>
       </c>
       <c r="C65" t="n">
-        <v>2.190204036463866</v>
+        <v>1.251235964487253</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>0.58605</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1241</v>
+        <v>0.26915</v>
       </c>
       <c r="C66" t="n">
-        <v>2.308803520265387</v>
+        <v>0.819251664852176</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.09088</v>
+        <v>0.8113</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1241</v>
+        <v>0.26915</v>
       </c>
       <c r="C67" t="n">
-        <v>2.413348296498442</v>
+        <v>1.752835378603289</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.404075</v>
+        <v>0.9823</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1241</v>
+        <v>0.26915</v>
       </c>
       <c r="C68" t="n">
-        <v>1.612546242210389</v>
+        <v>2.25429098863437</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.58605</v>
+        <v>0.403</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1241</v>
+        <v>0.3611</v>
       </c>
       <c r="C69" t="n">
-        <v>1.083964565712836</v>
+        <v>1.319993157794227</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.804225</v>
+        <v>0.58605</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1241</v>
+        <v>0.3611</v>
       </c>
       <c r="C70" t="n">
-        <v>1.704889745544242</v>
+        <v>1.12498632677609</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.97356</v>
+        <v>0.9823</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1241</v>
+        <v>0.3611</v>
       </c>
       <c r="C71" t="n">
-        <v>2.5316236854344</v>
+        <v>2.227646112316721</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>0.0772</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C72" t="n">
-        <v>2.323854562245857</v>
+        <v>2.868488627980229</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.09088</v>
+        <v>0.403</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C73" t="n">
-        <v>2.406796259380387</v>
+        <v>1.800351259414656</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.404075</v>
+        <v>0.58605</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C74" t="n">
-        <v>1.497732445761472</v>
+        <v>1.587166959977038</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.58605</v>
+        <v>0.8113</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1727</v>
+        <v>0.452</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8770780149541734</v>
+        <v>2.088467142501512</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>0.9823</v>
       </c>
       <c r="B76" t="n">
-        <v>0.26915</v>
+        <v>0.452</v>
       </c>
       <c r="C76" t="n">
-        <v>2.360114798375959</v>
+        <v>2.27075403819922</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.404075</v>
+        <v>0.403</v>
       </c>
       <c r="B77" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>1.24466659514233</v>
+        <v>2.372012992515687</v>
       </c>
     </row>
     <row r="78">
@@ -6976,263 +6096,87 @@
         <v>0.58605</v>
       </c>
       <c r="B78" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.819251664852176</v>
+        <v>2.069925422198373</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.804225</v>
+        <v>0.8113</v>
       </c>
       <c r="B79" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>1.721238179738977</v>
+        <v>2.38455265567204</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.97356</v>
+        <v>0.9823</v>
       </c>
       <c r="B80" t="n">
-        <v>0.26915</v>
+        <v>0.6507000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>2.241846046148877</v>
+        <v>2.440690161782478</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>0.0772</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>2.480858952248186</v>
+        <v>2.373496557463548</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.09088</v>
+        <v>0.403</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>2.550773974819785</v>
+        <v>1.605955247433435</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.404075</v>
+        <v>0.58605</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>1.312968506260877</v>
+        <v>1.069929325723325</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.58605</v>
+        <v>0.8113</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>1.12498632677609</v>
+        <v>2.020034340842503</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.804225</v>
+        <v>0.9823</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3611</v>
+        <v>0.8969499999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>1.873185790057783</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>0.97356</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.3611</v>
-      </c>
-      <c r="C86" t="n">
-        <v>2.219411204433977</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>0</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2.69585445994429</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>0.09088</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2.885512188013911</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>0.58605</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1.587166959977038</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>0.804225</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="C90" t="n">
-        <v>2.074396273713131</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>0</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C91" t="n">
-        <v>2.76420380758339</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>0.404075</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C92" t="n">
-        <v>2.369352086649524</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>0.58605</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C93" t="n">
-        <v>2.069925422198373</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>0.804225</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C94" t="n">
-        <v>2.367572190655094</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>0.97356</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.6507000000000001</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2.451704021114478</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>0</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C96" t="n">
-        <v>2.264835011027967</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>0.09088</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2.39157802141249</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>0.404075</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1.60219711377579</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>0.58605</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1.069929325723325</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>0.804225</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C100" t="n">
-        <v>2.002099575090857</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>0.97356</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.8969499999999999</v>
-      </c>
-      <c r="C101" t="n">
-        <v>2.2281943040447</v>
+        <v>2.230427927390734</v>
       </c>
     </row>
   </sheetData>

--- a/ArtigoKrigingVsg/benchmark/VirtualSamples.xlsx
+++ b/ArtigoKrigingVsg/benchmark/VirtualSamples.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,112 +457,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0342</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C2" t="n">
-        <v>2.370563597588472</v>
+        <v>2.335495206209498</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0342</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C3" t="n">
-        <v>2.664261693034507</v>
+        <v>2.732909298170054</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0342</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5233</v>
+        <v>0.58605</v>
       </c>
       <c r="C4" t="n">
-        <v>3.084300978964361</v>
+        <v>3.163025494376887</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0245</v>
+        <v>0.8113</v>
       </c>
       <c r="C5" t="n">
-        <v>2.314349564993261</v>
+        <v>2.439693420946896</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2035</v>
+        <v>0.9823</v>
       </c>
       <c r="C6" t="n">
-        <v>2.415229477182888</v>
+        <v>2.253232435263718</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3782</v>
+        <v>0.0772</v>
       </c>
       <c r="C7" t="n">
-        <v>2.707775532677638</v>
+        <v>2.373150393571109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5233</v>
+        <v>0.403</v>
       </c>
       <c r="C8" t="n">
-        <v>3.19511042307462</v>
+        <v>2.786042761433524</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B9" t="n">
-        <v>0.954775</v>
+        <v>0.58605</v>
       </c>
       <c r="C9" t="n">
-        <v>2.361975555666473</v>
+        <v>3.235056365973481</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1428</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2035</v>
+        <v>0.8113</v>
       </c>
       <c r="C10" t="n">
-        <v>2.382499852835771</v>
+        <v>2.510171085998302</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1428</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3782</v>
+        <v>0.9823</v>
       </c>
       <c r="C11" t="n">
-        <v>2.649031856979964</v>
+        <v>2.363559204848836</v>
       </c>
     </row>
     <row r="12">
@@ -570,10 +570,10 @@
         <v>0.1428</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5233</v>
+        <v>0.0772</v>
       </c>
       <c r="C12" t="n">
-        <v>3.20179837483462</v>
+        <v>2.371280291711122</v>
       </c>
     </row>
     <row r="13">
@@ -581,43 +581,43 @@
         <v>0.1428</v>
       </c>
       <c r="B13" t="n">
-        <v>0.954775</v>
+        <v>0.403</v>
       </c>
       <c r="C13" t="n">
-        <v>2.464556039207273</v>
+        <v>2.737002946407923</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.18225</v>
+        <v>0.1428</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0245</v>
+        <v>0.58605</v>
       </c>
       <c r="C14" t="n">
-        <v>2.308352464591984</v>
+        <v>3.186906518935798</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.18225</v>
+        <v>0.1428</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2035</v>
+        <v>0.8113</v>
       </c>
       <c r="C15" t="n">
-        <v>2.312553863968724</v>
+        <v>2.540734146978845</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.18225</v>
+        <v>0.1428</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3782</v>
+        <v>0.9823</v>
       </c>
       <c r="C16" t="n">
-        <v>2.542545555836102</v>
+        <v>2.478275097601395</v>
       </c>
     </row>
     <row r="17">
@@ -625,758 +625,934 @@
         <v>0.18225</v>
       </c>
       <c r="B17" t="n">
-        <v>0.954775</v>
+        <v>0.0772</v>
       </c>
       <c r="C17" t="n">
-        <v>2.508341516435023</v>
+        <v>2.3382292177757</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0245</v>
+        <v>0.403</v>
       </c>
       <c r="C18" t="n">
-        <v>2.267177519690442</v>
+        <v>2.634459877995488</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2035</v>
+        <v>0.58605</v>
       </c>
       <c r="C19" t="n">
-        <v>2.151836438649988</v>
+        <v>3.120971669326346</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5233</v>
+        <v>0.8113</v>
       </c>
       <c r="C20" t="n">
-        <v>2.874484696314765</v>
+        <v>2.525039709260596</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B21" t="n">
-        <v>0.954775</v>
+        <v>0.9823</v>
       </c>
       <c r="C21" t="n">
-        <v>2.374466369247795</v>
+        <v>2.553729788336867</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0245</v>
+        <v>0.0772</v>
       </c>
       <c r="C22" t="n">
-        <v>1.897770162837313</v>
+        <v>2.264487047312485</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2035</v>
+        <v>0.403</v>
       </c>
       <c r="C23" t="n">
-        <v>1.287114949473587</v>
+        <v>2.403260603768172</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3782</v>
+        <v>0.58605</v>
       </c>
       <c r="C24" t="n">
-        <v>1.256923878198355</v>
+        <v>2.966519863960531</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5233</v>
+        <v>0.8113</v>
       </c>
       <c r="C25" t="n">
-        <v>2.214448685096546</v>
+        <v>2.42024117880196</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>0.954775</v>
+        <v>0.9823</v>
       </c>
       <c r="C26" t="n">
-        <v>1.533137698838423</v>
+        <v>2.413460971166294</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4768</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C27" t="n">
-        <v>1.013634972297642</v>
+        <v>1.738839761820477</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4768</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C28" t="n">
-        <v>1.032888902583527</v>
+        <v>1.409737172825103</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4768</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>0.954775</v>
+        <v>0.58605</v>
       </c>
       <c r="C29" t="n">
-        <v>1.314979720058837</v>
+        <v>2.416775132041541</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.55415</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0245</v>
+        <v>0.8113</v>
       </c>
       <c r="C30" t="n">
-        <v>1.51273798196003</v>
+        <v>1.692742683841657</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.55415</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2035</v>
+        <v>0.9823</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7467628318143484</v>
+        <v>1.591256840156422</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.55415</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3782</v>
+        <v>0.0772</v>
       </c>
       <c r="C32" t="n">
-        <v>1.001468854618026</v>
+        <v>1.528742684751685</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.55415</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5233</v>
+        <v>0.403</v>
       </c>
       <c r="C33" t="n">
-        <v>2.014497539303214</v>
+        <v>1.196137262303452</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.5999</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0245</v>
+        <v>0.58605</v>
       </c>
       <c r="C34" t="n">
-        <v>1.418675209460323</v>
+        <v>2.344589516930124</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.5999</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2035</v>
+        <v>0.8113</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6412089801479686</v>
+        <v>1.488741811395</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.5999</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3782</v>
+        <v>0.9823</v>
       </c>
       <c r="C36" t="n">
-        <v>1.109984137596305</v>
+        <v>1.391166159773863</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.5999</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5233</v>
+        <v>0.0772</v>
       </c>
       <c r="C37" t="n">
-        <v>1.99041497401972</v>
+        <v>1.269652946683517</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2035</v>
+        <v>0.403</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7633618362575429</v>
+        <v>1.140546552972835</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3782</v>
+        <v>0.58605</v>
       </c>
       <c r="C39" t="n">
-        <v>1.299085149663815</v>
+        <v>2.217599190718142</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5233</v>
+        <v>0.8113</v>
       </c>
       <c r="C40" t="n">
-        <v>2.046113026804621</v>
+        <v>1.273417889617164</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B41" t="n">
-        <v>0.954775</v>
+        <v>0.9823</v>
       </c>
       <c r="C41" t="n">
-        <v>1.417220979124469</v>
+        <v>1.246364057902903</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0245</v>
+        <v>0.0772</v>
       </c>
       <c r="C42" t="n">
-        <v>1.641751834573852</v>
+        <v>1.163529779282797</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2035</v>
+        <v>0.403</v>
       </c>
       <c r="C43" t="n">
-        <v>1.32362256724401</v>
+        <v>1.249453051532468</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3782</v>
+        <v>0.58605</v>
       </c>
       <c r="C44" t="n">
-        <v>1.649966729031335</v>
+        <v>2.172363759114398</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B45" t="n">
-        <v>0.954775</v>
+        <v>0.8113</v>
       </c>
       <c r="C45" t="n">
-        <v>1.800405711651049</v>
+        <v>1.310153443476707</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.85185</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0245</v>
+        <v>0.9823</v>
       </c>
       <c r="C46" t="n">
-        <v>2.123606690202452</v>
+        <v>1.29000105214537</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C47" t="n">
-        <v>1.923234998374914</v>
+        <v>1.118597564224729</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B48" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C48" t="n">
-        <v>1.990118795701449</v>
+        <v>1.430937515664349</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5233</v>
+        <v>0.58605</v>
       </c>
       <c r="C49" t="n">
-        <v>2.30315404829313</v>
+        <v>2.194402330253064</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B50" t="n">
-        <v>0.954775</v>
+        <v>0.8113</v>
       </c>
       <c r="C50" t="n">
-        <v>2.087861068135279</v>
+        <v>1.539168602411235</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.93315</v>
+        <v>0.66415</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0245</v>
+        <v>0.9823</v>
       </c>
       <c r="C51" t="n">
-        <v>2.524549294569441</v>
+        <v>1.483551194819681</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C52" t="n">
-        <v>2.292242761925908</v>
+        <v>1.47786774370529</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C53" t="n">
-        <v>2.165428456003601</v>
+        <v>1.747556889615667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5233</v>
+        <v>0.58605</v>
       </c>
       <c r="C54" t="n">
-        <v>2.309241389857686</v>
+        <v>2.324278973596889</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B55" t="n">
-        <v>0.954775</v>
+        <v>0.8113</v>
       </c>
       <c r="C55" t="n">
-        <v>2.211353674356421</v>
+        <v>1.9453245425184</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.0772</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1241</v>
+        <v>0.9823</v>
       </c>
       <c r="C56" t="n">
-        <v>2.406526112193167</v>
+        <v>1.816964077132686</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.403</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1241</v>
+        <v>0.0772</v>
       </c>
       <c r="C57" t="n">
-        <v>1.664949508556719</v>
+        <v>2.061125350469034</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.58605</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1241</v>
+        <v>0.403</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9657441712019107</v>
+        <v>2.036018440826953</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8113</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1241</v>
+        <v>0.58605</v>
       </c>
       <c r="C59" t="n">
-        <v>1.741977639623528</v>
+        <v>2.420827478384304</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9823</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1241</v>
+        <v>0.8113</v>
       </c>
       <c r="C60" t="n">
-        <v>2.614203016244501</v>
+        <v>2.290280163615191</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.403</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1727</v>
+        <v>0.9823</v>
       </c>
       <c r="C61" t="n">
-        <v>1.501825996173713</v>
+        <v>2.07529299783093</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.58605</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1727</v>
+        <v>0.0772</v>
       </c>
       <c r="C62" t="n">
-        <v>0.761275415255831</v>
+        <v>2.536826880042788</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9823</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1727</v>
+        <v>0.403</v>
       </c>
       <c r="C63" t="n">
-        <v>2.492274002947787</v>
+        <v>2.177196673163702</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.0772</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B64" t="n">
-        <v>0.26915</v>
+        <v>0.58605</v>
       </c>
       <c r="C64" t="n">
-        <v>2.465398395572072</v>
+        <v>2.410065868286468</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.403</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B65" t="n">
-        <v>0.26915</v>
+        <v>0.8113</v>
       </c>
       <c r="C65" t="n">
-        <v>1.200132186349374</v>
+        <v>2.419104313422354</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.58605</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B66" t="n">
-        <v>0.26915</v>
+        <v>0.9823</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6790131274775729</v>
+        <v>2.185630250727485</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8113</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B67" t="n">
-        <v>0.26915</v>
+        <v>0.1241</v>
       </c>
       <c r="C67" t="n">
-        <v>1.685896481855749</v>
+        <v>2.345777775953702</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9823</v>
+        <v>0.2035</v>
       </c>
       <c r="B68" t="n">
-        <v>0.26915</v>
+        <v>0.1241</v>
       </c>
       <c r="C68" t="n">
-        <v>2.309631035679439</v>
+        <v>2.305114477496832</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.403</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3611</v>
+        <v>0.1241</v>
       </c>
       <c r="C69" t="n">
-        <v>1.285074080111027</v>
+        <v>1.77630056128047</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.58605</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3611</v>
+        <v>0.1241</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9895185103404337</v>
+        <v>1.149199593526885</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9823</v>
+        <v>0.9547750000000003</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3611</v>
+        <v>0.1241</v>
       </c>
       <c r="C71" t="n">
-        <v>2.212072801461691</v>
+        <v>2.540798176489298</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.0772</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B72" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C72" t="n">
-        <v>2.951422492396834</v>
+        <v>2.349275016670172</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.403</v>
+        <v>0.2035</v>
       </c>
       <c r="B73" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C73" t="n">
-        <v>1.828550581034915</v>
+        <v>2.28155757097495</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.58605</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B74" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C74" t="n">
-        <v>1.549685546046909</v>
+        <v>1.629136227172013</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8113</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B75" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C75" t="n">
-        <v>2.07751405696562</v>
+        <v>0.9432619925299803</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9823</v>
+        <v>0.9547750000000003</v>
       </c>
       <c r="B76" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C76" t="n">
-        <v>2.20940425883671</v>
+        <v>2.423922104257376</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.403</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C77" t="n">
-        <v>2.446370472970718</v>
+        <v>2.421816051089158</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.58605</v>
+        <v>0.2035</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C78" t="n">
-        <v>2.121411645477241</v>
+        <v>2.25834384808268</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.8113</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C79" t="n">
-        <v>2.42687045840678</v>
+        <v>1.365015881201697</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9823</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C80" t="n">
-        <v>2.451038539745042</v>
+        <v>0.7217526151659137</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.0772</v>
+        <v>0.9547750000000003</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.26915</v>
       </c>
       <c r="C81" t="n">
-        <v>2.363631538211525</v>
+        <v>2.257950918548031</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.403</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B82" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.3611</v>
       </c>
       <c r="C82" t="n">
-        <v>1.568835707952887</v>
+        <v>2.604700171295495</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.58605</v>
+        <v>0.2035</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.3611</v>
       </c>
       <c r="C83" t="n">
-        <v>1.001718063553019</v>
+        <v>2.412036114398726</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.8113</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.3611</v>
       </c>
       <c r="C84" t="n">
-        <v>2.014846339219309</v>
+        <v>1.445116367913748</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9823</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B85" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.8899853028655017</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.189317999522083</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.02450000000000001</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.855130587980337</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.2035</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.770766746919547</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.3782000000000001</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.938127989093688</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.5233000000000001</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.512978739338109</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.216074580547861</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.02450000000000001</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.920388891142964</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.2035</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.980373056535108</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.3782000000000001</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.531284076216318</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.5233000000000001</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.179214465966824</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.491109156394238</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.02450000000000001</v>
+      </c>
+      <c r="B97" t="n">
         <v>0.8969499999999999</v>
       </c>
-      <c r="C85" t="n">
-        <v>2.28492977212135</v>
+      <c r="C97" t="n">
+        <v>2.280536481801591</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.2035</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.40829921115559</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.3782000000000001</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.66761997006392</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.5233000000000001</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.071562591286222</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.289725514296304</v>
       </c>
     </row>
   </sheetData>
@@ -1390,7 +1566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1417,112 +1593,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0342</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C2" t="n">
-        <v>2.370106462164179</v>
+        <v>2.33123344790202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0342</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C3" t="n">
-        <v>2.493288909113194</v>
+        <v>2.571371453573805</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0342</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5233</v>
+        <v>0.58605</v>
       </c>
       <c r="C4" t="n">
-        <v>3.087054802651211</v>
+        <v>3.235539068642494</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0245</v>
+        <v>0.8113</v>
       </c>
       <c r="C5" t="n">
-        <v>2.319384897029255</v>
+        <v>2.341010931901851</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2035</v>
+        <v>0.9823</v>
       </c>
       <c r="C6" t="n">
-        <v>2.426344682958336</v>
+        <v>2.3096146830483</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3782</v>
+        <v>0.0772</v>
       </c>
       <c r="C7" t="n">
-        <v>2.563626356433465</v>
+        <v>2.382388515330965</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5233</v>
+        <v>0.403</v>
       </c>
       <c r="C8" t="n">
-        <v>3.189151092694194</v>
+        <v>2.648712409286102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B9" t="n">
-        <v>0.954775</v>
+        <v>0.58605</v>
       </c>
       <c r="C9" t="n">
-        <v>2.457534946507073</v>
+        <v>3.342345006521438</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1428</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2035</v>
+        <v>0.8113</v>
       </c>
       <c r="C10" t="n">
-        <v>2.437676952374445</v>
+        <v>2.432994865158382</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1428</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3782</v>
+        <v>0.9823</v>
       </c>
       <c r="C11" t="n">
-        <v>2.589480464266318</v>
+        <v>2.525496949126833</v>
       </c>
     </row>
     <row r="12">
@@ -1530,10 +1706,10 @@
         <v>0.1428</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5233</v>
+        <v>0.0772</v>
       </c>
       <c r="C12" t="n">
-        <v>3.225182580042983</v>
+        <v>2.405244074465656</v>
       </c>
     </row>
     <row r="13">
@@ -1541,43 +1717,43 @@
         <v>0.1428</v>
       </c>
       <c r="B13" t="n">
-        <v>0.954775</v>
+        <v>0.403</v>
       </c>
       <c r="C13" t="n">
-        <v>2.552094325769212</v>
+        <v>2.68107754541307</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.18225</v>
+        <v>0.1428</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0245</v>
+        <v>0.58605</v>
       </c>
       <c r="C14" t="n">
-        <v>2.336678167294227</v>
+        <v>3.372885169172106</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.18225</v>
+        <v>0.1428</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2035</v>
+        <v>0.8113</v>
       </c>
       <c r="C15" t="n">
-        <v>2.401378299779761</v>
+        <v>2.481201964324015</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.18225</v>
+        <v>0.1428</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3782</v>
+        <v>0.9823</v>
       </c>
       <c r="C16" t="n">
-        <v>2.550595734768065</v>
+        <v>2.640637682747713</v>
       </c>
     </row>
     <row r="17">
@@ -1585,758 +1761,934 @@
         <v>0.18225</v>
       </c>
       <c r="B17" t="n">
-        <v>0.954775</v>
+        <v>0.0772</v>
       </c>
       <c r="C17" t="n">
-        <v>2.511199336849185</v>
+        <v>2.397579850360708</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0245</v>
+        <v>0.403</v>
       </c>
       <c r="C18" t="n">
-        <v>2.308641130440374</v>
+        <v>2.647833014446886</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2035</v>
+        <v>0.58605</v>
       </c>
       <c r="C19" t="n">
-        <v>2.264680803912607</v>
+        <v>3.342529856782908</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5233</v>
+        <v>0.8113</v>
       </c>
       <c r="C20" t="n">
-        <v>3.075436986825904</v>
+        <v>2.463339268195324</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B21" t="n">
-        <v>0.954775</v>
+        <v>0.9823</v>
       </c>
       <c r="C21" t="n">
-        <v>2.307012392360234</v>
+        <v>2.609404916463518</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0245</v>
+        <v>0.0772</v>
       </c>
       <c r="C22" t="n">
-        <v>2.004872287222224</v>
+        <v>2.348601354160143</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2035</v>
+        <v>0.403</v>
       </c>
       <c r="C23" t="n">
-        <v>1.276890848861211</v>
+        <v>2.479298067261337</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3782</v>
+        <v>0.58605</v>
       </c>
       <c r="C24" t="n">
-        <v>1.199460087550118</v>
+        <v>3.222642961043528</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5233</v>
+        <v>0.8113</v>
       </c>
       <c r="C25" t="n">
-        <v>2.408572983512448</v>
+        <v>2.352354556106949</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>0.954775</v>
+        <v>0.9823</v>
       </c>
       <c r="C26" t="n">
-        <v>1.578358652146148</v>
+        <v>2.410075304027297</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4768</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9559259741420952</v>
+        <v>1.878106611442367</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4768</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9579083288042224</v>
+        <v>1.38768559354075</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4768</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>0.954775</v>
+        <v>0.58605</v>
       </c>
       <c r="C29" t="n">
-        <v>1.352812816862226</v>
+        <v>2.618569208385048</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.55415</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0245</v>
+        <v>0.8113</v>
       </c>
       <c r="C30" t="n">
-        <v>1.534643722223391</v>
+        <v>1.659269794926653</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.55415</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2035</v>
+        <v>0.9823</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6407549551699687</v>
+        <v>1.681142891348661</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.55415</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3782</v>
+        <v>0.0772</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8642745192752713</v>
+        <v>1.636771941927235</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.55415</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5233</v>
+        <v>0.403</v>
       </c>
       <c r="C33" t="n">
-        <v>1.992844290195619</v>
+        <v>1.159846004452722</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.5999</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0245</v>
+        <v>0.58605</v>
       </c>
       <c r="C34" t="n">
-        <v>1.391246228317672</v>
+        <v>2.422754815959438</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.5999</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2035</v>
+        <v>0.8113</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5809700397494546</v>
+        <v>1.379731992249027</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.5999</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3782</v>
+        <v>0.9823</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9479147952289673</v>
+        <v>1.466700559722829</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.5999</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5233</v>
+        <v>0.0772</v>
       </c>
       <c r="C37" t="n">
-        <v>1.916154509063791</v>
+        <v>1.274636496879795</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2035</v>
+        <v>0.403</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6934815574249209</v>
+        <v>1.055054205791417</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3782</v>
+        <v>0.58605</v>
       </c>
       <c r="C39" t="n">
-        <v>1.196063946410663</v>
+        <v>2.153469376447499</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5233</v>
+        <v>0.8113</v>
       </c>
       <c r="C40" t="n">
-        <v>1.925226636386365</v>
+        <v>1.088063669337321</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B41" t="n">
-        <v>0.954775</v>
+        <v>0.9823</v>
       </c>
       <c r="C41" t="n">
-        <v>1.245108652157796</v>
+        <v>1.206144052573699</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0245</v>
+        <v>0.0772</v>
       </c>
       <c r="C42" t="n">
-        <v>1.586546003272243</v>
+        <v>1.112671845743832</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2035</v>
+        <v>0.403</v>
       </c>
       <c r="C43" t="n">
-        <v>1.234399835460724</v>
+        <v>1.118468367449702</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3782</v>
+        <v>0.58605</v>
       </c>
       <c r="C44" t="n">
-        <v>1.664041476129899</v>
+        <v>2.05265458770741</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B45" t="n">
-        <v>0.954775</v>
+        <v>0.8113</v>
       </c>
       <c r="C45" t="n">
-        <v>1.739346310711846</v>
+        <v>1.08218563496129</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.85185</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0245</v>
+        <v>0.9823</v>
       </c>
       <c r="C46" t="n">
-        <v>2.181980092882131</v>
+        <v>1.174499366879033</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C47" t="n">
-        <v>1.939573362684447</v>
+        <v>1.047683046361254</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B48" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C48" t="n">
-        <v>2.024420435040513</v>
+        <v>1.331479291752183</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5233</v>
+        <v>0.58605</v>
       </c>
       <c r="C49" t="n">
-        <v>2.326103380278684</v>
+        <v>2.043174543551579</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B50" t="n">
-        <v>0.954775</v>
+        <v>0.8113</v>
       </c>
       <c r="C50" t="n">
-        <v>2.092033572850522</v>
+        <v>1.31981907189998</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.93315</v>
+        <v>0.66415</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0245</v>
+        <v>0.9823</v>
       </c>
       <c r="C51" t="n">
-        <v>2.625002866115245</v>
+        <v>1.330894115679198</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C52" t="n">
-        <v>2.382738150772649</v>
+        <v>1.407390488093313</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C53" t="n">
-        <v>2.17580485686356</v>
+        <v>1.748634810452409</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5233</v>
+        <v>0.58605</v>
       </c>
       <c r="C54" t="n">
-        <v>2.362179238805012</v>
+        <v>2.256185415701682</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B55" t="n">
-        <v>0.954775</v>
+        <v>0.8113</v>
       </c>
       <c r="C55" t="n">
-        <v>2.198786190636019</v>
+        <v>1.923869252584277</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.0772</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1241</v>
+        <v>0.9823</v>
       </c>
       <c r="C56" t="n">
-        <v>2.410834540764419</v>
+        <v>1.764988498225463</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.403</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1241</v>
+        <v>0.0772</v>
       </c>
       <c r="C57" t="n">
-        <v>1.796040604426548</v>
+        <v>2.11475197140624</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.58605</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1241</v>
+        <v>0.403</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9101690343899919</v>
+        <v>2.065152684458159</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8113</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1241</v>
+        <v>0.58605</v>
       </c>
       <c r="C59" t="n">
-        <v>1.706315366385772</v>
+        <v>2.470886235798309</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9823</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1241</v>
+        <v>0.8113</v>
       </c>
       <c r="C60" t="n">
-        <v>2.709490264967455</v>
+        <v>2.366564620527809</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.403</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1727</v>
+        <v>0.9823</v>
       </c>
       <c r="C61" t="n">
-        <v>1.56563690012836</v>
+        <v>2.075681078696856</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.58605</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1727</v>
+        <v>0.0772</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6915521887510525</v>
+        <v>2.625101254478173</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9823</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1727</v>
+        <v>0.403</v>
       </c>
       <c r="C63" t="n">
-        <v>2.59369648237189</v>
+        <v>2.187571685445392</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.0772</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B64" t="n">
-        <v>0.26915</v>
+        <v>0.58605</v>
       </c>
       <c r="C64" t="n">
-        <v>2.404604209967006</v>
+        <v>2.493649987565806</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.403</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B65" t="n">
-        <v>0.26915</v>
+        <v>0.8113</v>
       </c>
       <c r="C65" t="n">
-        <v>1.122589203172706</v>
+        <v>2.467986756186868</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.58605</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B66" t="n">
-        <v>0.26915</v>
+        <v>0.9823</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5041850928196629</v>
+        <v>2.172093531956718</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8113</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B67" t="n">
-        <v>0.26915</v>
+        <v>0.1241</v>
       </c>
       <c r="C67" t="n">
-        <v>1.684844792548196</v>
+        <v>2.350340848753989</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9823</v>
+        <v>0.2035</v>
       </c>
       <c r="B68" t="n">
-        <v>0.26915</v>
+        <v>0.1241</v>
       </c>
       <c r="C68" t="n">
-        <v>2.336947804607485</v>
+        <v>2.404914118623263</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.403</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3611</v>
+        <v>0.1241</v>
       </c>
       <c r="C69" t="n">
-        <v>1.21885353356219</v>
+        <v>1.911740912183451</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.58605</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3611</v>
+        <v>0.1241</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8046141937998246</v>
+        <v>1.165573294099473</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9823</v>
+        <v>0.9547750000000003</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3611</v>
+        <v>0.1241</v>
       </c>
       <c r="C71" t="n">
-        <v>2.212881757959216</v>
+        <v>2.644875012933686</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.0772</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B72" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C72" t="n">
-        <v>2.847285687744197</v>
+        <v>2.360709255024533</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.403</v>
+        <v>0.2035</v>
       </c>
       <c r="B73" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C73" t="n">
-        <v>1.924720065137951</v>
+        <v>2.388352182404776</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.58605</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B74" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C74" t="n">
-        <v>1.472587013534257</v>
+        <v>1.709186235595699</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8113</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B75" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C75" t="n">
-        <v>2.073065981497061</v>
+        <v>0.8958334184589051</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9823</v>
+        <v>0.9547750000000003</v>
       </c>
       <c r="B76" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C76" t="n">
-        <v>2.236104279799188</v>
+        <v>2.532777989502695</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.403</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C77" t="n">
-        <v>2.59227666959687</v>
+        <v>2.347595144091932</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.58605</v>
+        <v>0.2035</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C78" t="n">
-        <v>1.931901615414392</v>
+        <v>2.319154368783741</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.8113</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C79" t="n">
-        <v>2.469717299071185</v>
+        <v>1.302571393612352</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9823</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C80" t="n">
-        <v>2.526733465307567</v>
+        <v>0.5274375532325742</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.0772</v>
+        <v>0.9547750000000003</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.26915</v>
       </c>
       <c r="C81" t="n">
-        <v>2.315493274946981</v>
+        <v>2.296671403077791</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.403</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B82" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.3611</v>
       </c>
       <c r="C82" t="n">
-        <v>1.549759730430736</v>
+        <v>2.436970114069267</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.58605</v>
+        <v>0.2035</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.3611</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9134715048837598</v>
+        <v>2.444542977292518</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.8113</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.3611</v>
       </c>
       <c r="C84" t="n">
-        <v>2.024416811143837</v>
+        <v>1.389743501785027</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9823</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B85" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.7487185248668646</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.195802492090705</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.02450000000000001</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.752493976512337</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.2035</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.839919082658314</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.3782000000000001</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.048675649971884</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.5233000000000001</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.515153484984431</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.240131284145059</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.02450000000000001</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3.118478131841314</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.2035</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C93" t="n">
+        <v>3.238522056715149</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.3782000000000001</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.690199733559767</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.5233000000000001</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.095628955855072</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.571893095336684</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.02450000000000001</v>
+      </c>
+      <c r="B97" t="n">
         <v>0.8969499999999999</v>
       </c>
-      <c r="C85" t="n">
-        <v>2.280670879343432</v>
+      <c r="C97" t="n">
+        <v>2.176271239836516</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.2035</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.299993975004307</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.3782000000000001</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.645036928597011</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.5233000000000001</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.019731538974215</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.288174959162814</v>
       </c>
     </row>
   </sheetData>
@@ -2350,7 +2702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2377,112 +2729,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0342</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C2" t="n">
-        <v>2.370476273082733</v>
+        <v>2.31966378209549</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0342</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C3" t="n">
-        <v>2.558299263825177</v>
+        <v>2.623002092876305</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0342</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5233</v>
+        <v>0.58605</v>
       </c>
       <c r="C4" t="n">
-        <v>3.017786123472074</v>
+        <v>3.122488591909355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0245</v>
+        <v>0.8113</v>
       </c>
       <c r="C5" t="n">
-        <v>2.255008346411097</v>
+        <v>2.438676125006714</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2035</v>
+        <v>0.9823</v>
       </c>
       <c r="C6" t="n">
-        <v>2.381225078588632</v>
+        <v>2.241452864247672</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3782</v>
+        <v>0.0772</v>
       </c>
       <c r="C7" t="n">
-        <v>2.582023060141134</v>
+        <v>2.334983811935399</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5233</v>
+        <v>0.403</v>
       </c>
       <c r="C8" t="n">
-        <v>3.156094851869652</v>
+        <v>2.66404684580056</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B9" t="n">
-        <v>0.954775</v>
+        <v>0.58605</v>
       </c>
       <c r="C9" t="n">
-        <v>2.351368557653373</v>
+        <v>3.173106351884069</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1428</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2035</v>
+        <v>0.8113</v>
       </c>
       <c r="C10" t="n">
-        <v>2.317910438823252</v>
+        <v>2.484985739800602</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1428</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3782</v>
+        <v>0.9823</v>
       </c>
       <c r="C11" t="n">
-        <v>2.540635046195256</v>
+        <v>2.33744434279029</v>
       </c>
     </row>
     <row r="12">
@@ -2490,10 +2842,10 @@
         <v>0.1428</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5233</v>
+        <v>0.0772</v>
       </c>
       <c r="C12" t="n">
-        <v>3.179199516939843</v>
+        <v>2.277230920475264</v>
       </c>
     </row>
     <row r="13">
@@ -2501,43 +2853,43 @@
         <v>0.1428</v>
       </c>
       <c r="B13" t="n">
-        <v>0.954775</v>
+        <v>0.403</v>
       </c>
       <c r="C13" t="n">
-        <v>2.446684607306829</v>
+        <v>2.632775529297428</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.18225</v>
+        <v>0.1428</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0245</v>
+        <v>0.58605</v>
       </c>
       <c r="C14" t="n">
-        <v>2.168545963182741</v>
+        <v>3.059494145591999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.18225</v>
+        <v>0.1428</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2035</v>
+        <v>0.8113</v>
       </c>
       <c r="C15" t="n">
-        <v>2.22690655857587</v>
+        <v>2.512593038709628</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.18225</v>
+        <v>0.1428</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3782</v>
+        <v>0.9823</v>
       </c>
       <c r="C16" t="n">
-        <v>2.458391768161389</v>
+        <v>2.447153038144876</v>
       </c>
     </row>
     <row r="17">
@@ -2545,758 +2897,934 @@
         <v>0.18225</v>
       </c>
       <c r="B17" t="n">
-        <v>0.954775</v>
+        <v>0.0772</v>
       </c>
       <c r="C17" t="n">
-        <v>2.492962215619628</v>
+        <v>2.203942191926082</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0245</v>
+        <v>0.403</v>
       </c>
       <c r="C18" t="n">
-        <v>2.082651366209986</v>
+        <v>2.547992992795905</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2035</v>
+        <v>0.58605</v>
       </c>
       <c r="C19" t="n">
-        <v>2.058358730541388</v>
+        <v>2.94561405189275</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5233</v>
+        <v>0.8113</v>
       </c>
       <c r="C20" t="n">
-        <v>2.709394691949275</v>
+        <v>2.510351070299952</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B21" t="n">
-        <v>0.954775</v>
+        <v>0.9823</v>
       </c>
       <c r="C21" t="n">
-        <v>2.345003901484267</v>
+        <v>2.537876200411268</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0245</v>
+        <v>0.0772</v>
       </c>
       <c r="C22" t="n">
-        <v>1.775646989860969</v>
+        <v>2.082628757729644</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2035</v>
+        <v>0.403</v>
       </c>
       <c r="C23" t="n">
-        <v>1.358778634448761</v>
+        <v>2.339932706084628</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3782</v>
+        <v>0.58605</v>
       </c>
       <c r="C24" t="n">
-        <v>1.296568287615263</v>
+        <v>2.741999316529757</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5233</v>
+        <v>0.8113</v>
       </c>
       <c r="C25" t="n">
-        <v>2.111951491297765</v>
+        <v>2.42711607568891</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>0.954775</v>
+        <v>0.9823</v>
       </c>
       <c r="C26" t="n">
-        <v>1.581571502962259</v>
+        <v>2.368422372121139</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4768</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C27" t="n">
-        <v>1.17706972311836</v>
+        <v>1.675535002794478</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4768</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C28" t="n">
-        <v>1.08656732115517</v>
+        <v>1.435855066913969</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4768</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>0.954775</v>
+        <v>0.58605</v>
       </c>
       <c r="C29" t="n">
-        <v>1.373969737151485</v>
+        <v>2.298121325631631</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.55415</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0245</v>
+        <v>0.8113</v>
       </c>
       <c r="C30" t="n">
-        <v>1.558201186337755</v>
+        <v>1.735340803154818</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.55415</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2035</v>
+        <v>0.9823</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9335758662351156</v>
+        <v>1.629567958300612</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.55415</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3782</v>
+        <v>0.0772</v>
       </c>
       <c r="C32" t="n">
-        <v>1.122610919917218</v>
+        <v>1.553317713178633</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.55415</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5233</v>
+        <v>0.403</v>
       </c>
       <c r="C33" t="n">
-        <v>2.00043900918759</v>
+        <v>1.227342611145264</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.5999</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0245</v>
+        <v>0.58605</v>
       </c>
       <c r="C34" t="n">
-        <v>1.497031279874435</v>
+        <v>2.304253819065345</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.5999</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2035</v>
+        <v>0.8113</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7486717252161407</v>
+        <v>1.578572618602269</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.5999</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3782</v>
+        <v>0.9823</v>
       </c>
       <c r="C36" t="n">
-        <v>1.273782190736424</v>
+        <v>1.44982174322325</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.5999</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5233</v>
+        <v>0.0772</v>
       </c>
       <c r="C37" t="n">
-        <v>1.952616513023228</v>
+        <v>1.381922258856918</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2035</v>
+        <v>0.403</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8690610078956896</v>
+        <v>1.220140135862666</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3782</v>
+        <v>0.58605</v>
       </c>
       <c r="C39" t="n">
-        <v>1.475496780399686</v>
+        <v>2.173734132314261</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5233</v>
+        <v>0.8113</v>
       </c>
       <c r="C40" t="n">
-        <v>1.977234490823085</v>
+        <v>1.361622976178035</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B41" t="n">
-        <v>0.954775</v>
+        <v>0.9823</v>
       </c>
       <c r="C41" t="n">
-        <v>1.561997577489513</v>
+        <v>1.337490325949423</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0245</v>
+        <v>0.0772</v>
       </c>
       <c r="C42" t="n">
-        <v>1.659219210665269</v>
+        <v>1.291649922075816</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2035</v>
+        <v>0.403</v>
       </c>
       <c r="C43" t="n">
-        <v>1.4208623221567</v>
+        <v>1.37937174773676</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3782</v>
+        <v>0.58605</v>
       </c>
       <c r="C44" t="n">
-        <v>1.761341033873194</v>
+        <v>2.090111417380354</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B45" t="n">
-        <v>0.954775</v>
+        <v>0.8113</v>
       </c>
       <c r="C45" t="n">
-        <v>1.853597843216944</v>
+        <v>1.397010904765907</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.85185</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0245</v>
+        <v>0.9823</v>
       </c>
       <c r="C46" t="n">
-        <v>2.060324145379541</v>
+        <v>1.428644649296707</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C47" t="n">
-        <v>1.886773492306325</v>
+        <v>1.196159225176452</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B48" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C48" t="n">
-        <v>1.985791473272704</v>
+        <v>1.569287497246395</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5233</v>
+        <v>0.58605</v>
       </c>
       <c r="C49" t="n">
-        <v>2.264423560011882</v>
+        <v>2.079936210394314</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B50" t="n">
-        <v>0.954775</v>
+        <v>0.8113</v>
       </c>
       <c r="C50" t="n">
-        <v>2.030952499457808</v>
+        <v>1.64007480168738</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.93315</v>
+        <v>0.66415</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0245</v>
+        <v>0.9823</v>
       </c>
       <c r="C51" t="n">
-        <v>2.423694802494505</v>
+        <v>1.612534148679583</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C52" t="n">
-        <v>2.169871767563166</v>
+        <v>1.489666771145315</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C53" t="n">
-        <v>2.105472406417528</v>
+        <v>1.825732040133791</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5233</v>
+        <v>0.58605</v>
       </c>
       <c r="C54" t="n">
-        <v>2.263769523158385</v>
+        <v>2.232624111088207</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B55" t="n">
-        <v>0.954775</v>
+        <v>0.8113</v>
       </c>
       <c r="C55" t="n">
-        <v>2.108192865680282</v>
+        <v>1.981643747829515</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.0772</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1241</v>
+        <v>0.9823</v>
       </c>
       <c r="C56" t="n">
-        <v>2.405780903374618</v>
+        <v>1.861033511484579</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.403</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1241</v>
+        <v>0.0772</v>
       </c>
       <c r="C57" t="n">
-        <v>1.625879420694963</v>
+        <v>2.015625110790442</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.58605</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1241</v>
+        <v>0.403</v>
       </c>
       <c r="C58" t="n">
-        <v>1.128256559656317</v>
+        <v>2.023398305422954</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8113</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1241</v>
+        <v>0.58605</v>
       </c>
       <c r="C59" t="n">
-        <v>1.733258727393568</v>
+        <v>2.380003845651444</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9823</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1241</v>
+        <v>0.8113</v>
       </c>
       <c r="C60" t="n">
-        <v>2.497680713343391</v>
+        <v>2.219755924771472</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.403</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1727</v>
+        <v>0.9823</v>
       </c>
       <c r="C61" t="n">
-        <v>1.512444414233596</v>
+        <v>2.020091391958598</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.58605</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1727</v>
+        <v>0.0772</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9207188253988839</v>
+        <v>2.472076895437451</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9823</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1727</v>
+        <v>0.403</v>
       </c>
       <c r="C63" t="n">
-        <v>2.33645121780567</v>
+        <v>2.123474551374009</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.0772</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B64" t="n">
-        <v>0.26915</v>
+        <v>0.58605</v>
       </c>
       <c r="C64" t="n">
-        <v>2.389431827269584</v>
+        <v>2.352604233837642</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.403</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B65" t="n">
-        <v>0.26915</v>
+        <v>0.8113</v>
       </c>
       <c r="C65" t="n">
-        <v>1.269435406257587</v>
+        <v>2.287777273496141</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.58605</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B66" t="n">
-        <v>0.26915</v>
+        <v>0.9823</v>
       </c>
       <c r="C66" t="n">
-        <v>0.867640868616549</v>
+        <v>2.093034322143495</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8113</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B67" t="n">
-        <v>0.26915</v>
+        <v>0.1241</v>
       </c>
       <c r="C67" t="n">
-        <v>1.737224210891496</v>
+        <v>2.352093291479175</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9823</v>
+        <v>0.2035</v>
       </c>
       <c r="B68" t="n">
-        <v>0.26915</v>
+        <v>0.1241</v>
       </c>
       <c r="C68" t="n">
-        <v>2.172525671518891</v>
+        <v>2.173987254769767</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.403</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3611</v>
+        <v>0.1241</v>
       </c>
       <c r="C69" t="n">
-        <v>1.331089093374832</v>
+        <v>1.696005927193409</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.58605</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3611</v>
+        <v>0.1241</v>
       </c>
       <c r="C70" t="n">
-        <v>1.165361986433004</v>
+        <v>1.292633122144431</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9823</v>
+        <v>0.9547750000000003</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3611</v>
+        <v>0.1241</v>
       </c>
       <c r="C71" t="n">
-        <v>2.142848402452016</v>
+        <v>2.440244987643775</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.0772</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B72" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C72" t="n">
-        <v>2.850852034594038</v>
+        <v>2.363255441544774</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.403</v>
+        <v>0.2035</v>
       </c>
       <c r="B73" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C73" t="n">
-        <v>1.795173686785402</v>
+        <v>2.17293519331171</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.58605</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B74" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C74" t="n">
-        <v>1.597089568884952</v>
+        <v>1.599537300670036</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8113</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B75" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C75" t="n">
-        <v>2.054512448197896</v>
+        <v>1.12806827804848</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9823</v>
+        <v>0.9547750000000003</v>
       </c>
       <c r="B76" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C76" t="n">
-        <v>2.185806950357871</v>
+        <v>2.28798205008577</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.403</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C77" t="n">
-        <v>2.349067309941274</v>
+        <v>2.387533966598113</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.58605</v>
+        <v>0.2035</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C78" t="n">
-        <v>2.060364329568921</v>
+        <v>2.187592784542324</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.8113</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C79" t="n">
-        <v>2.360929977552629</v>
+        <v>1.416927952914873</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9823</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C80" t="n">
-        <v>2.370975272276</v>
+        <v>0.9193429513874865</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.0772</v>
+        <v>0.9547750000000003</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.26915</v>
       </c>
       <c r="C81" t="n">
-        <v>2.373122379884987</v>
+        <v>2.135281240764552</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.403</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B82" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.3611</v>
       </c>
       <c r="C82" t="n">
-        <v>1.620567629849827</v>
+        <v>2.512249264560078</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.58605</v>
+        <v>0.2035</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.3611</v>
       </c>
       <c r="C83" t="n">
-        <v>1.089627633645019</v>
+        <v>2.345433685429131</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.8113</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.3611</v>
       </c>
       <c r="C84" t="n">
-        <v>2.002788704194385</v>
+        <v>1.491632429839118</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9823</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B85" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.003751399526591</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.119483441227593</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.02450000000000001</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.754030385457167</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.2035</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.684263400957998</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.3782000000000001</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.887310342322461</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.5233000000000001</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.520062667777266</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.17964649178418</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.02450000000000001</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.834952040369546</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.2035</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.779482386751095</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.3782000000000001</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.41080808555491</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.5233000000000001</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.149825287927623</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.414703929958545</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.02450000000000001</v>
+      </c>
+      <c r="B97" t="n">
         <v>0.8969499999999999</v>
       </c>
-      <c r="C85" t="n">
-        <v>2.1722494464485</v>
+      <c r="C97" t="n">
+        <v>2.31307268060975</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.2035</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.396078964421716</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.3782000000000001</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.699934615761371</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.5233000000000001</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.1484325565558</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.166499891832129</v>
       </c>
     </row>
   </sheetData>
@@ -3310,7 +3838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3337,112 +3865,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0342</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C2" t="n">
-        <v>2.063080000049695</v>
+        <v>2.06308000003294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0342</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C3" t="n">
-        <v>2.063080000080168</v>
+        <v>2.063080000085331</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0342</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5233</v>
+        <v>0.58605</v>
       </c>
       <c r="C4" t="n">
-        <v>2.063080000108885</v>
+        <v>2.063080000115676</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0245</v>
+        <v>0.8113</v>
       </c>
       <c r="C5" t="n">
-        <v>2.063080000015311</v>
+        <v>2.063080000107079</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2035</v>
+        <v>0.9823</v>
       </c>
       <c r="C6" t="n">
-        <v>2.063080000038348</v>
+        <v>2.063080000096101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3782</v>
+        <v>0.0772</v>
       </c>
       <c r="C7" t="n">
-        <v>2.063080000070135</v>
+        <v>2.063080000022203</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5233</v>
+        <v>0.403</v>
       </c>
       <c r="C8" t="n">
-        <v>2.063080000103485</v>
+        <v>2.063080000075936</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B9" t="n">
-        <v>0.954775</v>
+        <v>0.58605</v>
       </c>
       <c r="C9" t="n">
-        <v>2.063080000090924</v>
+        <v>2.063080000108966</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1428</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2035</v>
+        <v>0.8113</v>
       </c>
       <c r="C10" t="n">
-        <v>2.063080000023743</v>
+        <v>2.063080000100677</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1428</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3782</v>
+        <v>0.9823</v>
       </c>
       <c r="C11" t="n">
-        <v>2.063080000056159</v>
+        <v>2.063080000088944</v>
       </c>
     </row>
     <row r="12">
@@ -3450,10 +3978,10 @@
         <v>0.1428</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5233</v>
+        <v>0.0772</v>
       </c>
       <c r="C12" t="n">
-        <v>2.06308000009238</v>
+        <v>2.063080000008521</v>
       </c>
     </row>
     <row r="13">
@@ -3461,43 +3989,43 @@
         <v>0.1428</v>
       </c>
       <c r="B13" t="n">
-        <v>0.954775</v>
+        <v>0.403</v>
       </c>
       <c r="C13" t="n">
-        <v>2.063080000082118</v>
+        <v>2.063080000062322</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.18225</v>
+        <v>0.1428</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0245</v>
+        <v>0.58605</v>
       </c>
       <c r="C14" t="n">
-        <v>2.063079999992706</v>
+        <v>2.063080000096353</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.18225</v>
+        <v>0.1428</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2035</v>
+        <v>0.8113</v>
       </c>
       <c r="C15" t="n">
-        <v>2.063080000011534</v>
+        <v>2.063080000092262</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.18225</v>
+        <v>0.1428</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3782</v>
+        <v>0.9823</v>
       </c>
       <c r="C16" t="n">
-        <v>2.063080000043641</v>
+        <v>2.063080000080268</v>
       </c>
     </row>
     <row r="17">
@@ -3505,758 +4033,934 @@
         <v>0.18225</v>
       </c>
       <c r="B17" t="n">
-        <v>0.954775</v>
+        <v>0.0772</v>
       </c>
       <c r="C17" t="n">
-        <v>2.063080000074556</v>
+        <v>2.063079999997575</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0245</v>
+        <v>0.403</v>
       </c>
       <c r="C18" t="n">
-        <v>2.063079999977213</v>
+        <v>2.063080000049769</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2035</v>
+        <v>0.58605</v>
       </c>
       <c r="C19" t="n">
-        <v>2.06307999999175</v>
+        <v>2.063080000084493</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5233</v>
+        <v>0.8113</v>
       </c>
       <c r="C20" t="n">
-        <v>2.063080000055011</v>
+        <v>2.063080000084933</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B21" t="n">
-        <v>0.954775</v>
+        <v>0.9823</v>
       </c>
       <c r="C21" t="n">
-        <v>2.063080000060125</v>
+        <v>2.063080000073105</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0245</v>
+        <v>0.0772</v>
       </c>
       <c r="C22" t="n">
-        <v>2.063079999928954</v>
+        <v>2.063079999980541</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2035</v>
+        <v>0.403</v>
       </c>
       <c r="C23" t="n">
-        <v>2.063079999926157</v>
+        <v>2.063080000027856</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3782</v>
+        <v>0.58605</v>
       </c>
       <c r="C24" t="n">
-        <v>2.063079999946414</v>
+        <v>2.063080000064053</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5233</v>
+        <v>0.8113</v>
       </c>
       <c r="C25" t="n">
-        <v>2.063079999982613</v>
+        <v>2.06308000007087</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>0.954775</v>
+        <v>0.9823</v>
       </c>
       <c r="C26" t="n">
-        <v>2.063080000005094</v>
+        <v>2.063080000058806</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4768</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C27" t="n">
-        <v>2.06307999991143</v>
+        <v>2.063079999927409</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4768</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C28" t="n">
-        <v>2.063079999928875</v>
+        <v>2.063079999952181</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4768</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>0.954775</v>
+        <v>0.58605</v>
       </c>
       <c r="C29" t="n">
-        <v>2.063079999990056</v>
+        <v>2.06307999999572</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.55415</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0245</v>
+        <v>0.8113</v>
       </c>
       <c r="C30" t="n">
-        <v>2.063079999901914</v>
+        <v>2.063080000008529</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.55415</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2035</v>
+        <v>0.9823</v>
       </c>
       <c r="C31" t="n">
-        <v>2.063079999893683</v>
+        <v>2.063080000005905</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.55415</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3782</v>
+        <v>0.0772</v>
       </c>
       <c r="C32" t="n">
-        <v>2.063079999912601</v>
+        <v>2.063079999914164</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.55415</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5233</v>
+        <v>0.403</v>
       </c>
       <c r="C33" t="n">
-        <v>2.06307999994548</v>
+        <v>2.063079999934402</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.5999</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0245</v>
+        <v>0.58605</v>
       </c>
       <c r="C34" t="n">
-        <v>2.063079999894946</v>
+        <v>2.063079999978657</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.5999</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2035</v>
+        <v>0.8113</v>
       </c>
       <c r="C35" t="n">
-        <v>2.063079999884815</v>
+        <v>2.063079999991291</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.5999</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3782</v>
+        <v>0.9823</v>
       </c>
       <c r="C36" t="n">
-        <v>2.063079999907423</v>
+        <v>2.063079999991655</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.5999</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5233</v>
+        <v>0.0772</v>
       </c>
       <c r="C37" t="n">
-        <v>2.063079999937207</v>
+        <v>2.063079999898187</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2035</v>
+        <v>0.403</v>
       </c>
       <c r="C38" t="n">
-        <v>2.063079999879846</v>
+        <v>2.063079999917271</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3782</v>
+        <v>0.58605</v>
       </c>
       <c r="C39" t="n">
-        <v>2.063079999902955</v>
+        <v>2.063079999957893</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5233</v>
+        <v>0.8113</v>
       </c>
       <c r="C40" t="n">
-        <v>2.063079999929184</v>
+        <v>2.063079999970461</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B41" t="n">
-        <v>0.954775</v>
+        <v>0.9823</v>
       </c>
       <c r="C41" t="n">
-        <v>2.063079999961487</v>
+        <v>2.063079999975525</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0245</v>
+        <v>0.0772</v>
       </c>
       <c r="C42" t="n">
-        <v>2.063079999885466</v>
+        <v>2.06307999989066</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2035</v>
+        <v>0.403</v>
       </c>
       <c r="C43" t="n">
-        <v>2.063079999882633</v>
+        <v>2.063079999912103</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3782</v>
+        <v>0.58605</v>
       </c>
       <c r="C44" t="n">
-        <v>2.063079999901022</v>
+        <v>2.063079999948438</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B45" t="n">
-        <v>0.954775</v>
+        <v>0.8113</v>
       </c>
       <c r="C45" t="n">
-        <v>2.063079999955554</v>
+        <v>2.063079999962052</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.85185</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0245</v>
+        <v>0.9823</v>
       </c>
       <c r="C46" t="n">
-        <v>2.063079999889327</v>
+        <v>2.06307999996966</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C47" t="n">
-        <v>2.063079999888503</v>
+        <v>2.063079999882902</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B48" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C48" t="n">
-        <v>2.063079999901961</v>
+        <v>2.063079999907317</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5233</v>
+        <v>0.58605</v>
       </c>
       <c r="C49" t="n">
-        <v>2.063079999920085</v>
+        <v>2.063079999939038</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B50" t="n">
-        <v>0.954775</v>
+        <v>0.8113</v>
       </c>
       <c r="C50" t="n">
-        <v>2.063079999950826</v>
+        <v>2.063079999954783</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.93315</v>
+        <v>0.66415</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0245</v>
+        <v>0.9823</v>
       </c>
       <c r="C51" t="n">
-        <v>2.063079999894082</v>
+        <v>2.063079999963639</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C52" t="n">
-        <v>2.063079999893502</v>
+        <v>2.063079999881935</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C53" t="n">
-        <v>2.063079999903342</v>
+        <v>2.063079999904641</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5233</v>
+        <v>0.58605</v>
       </c>
       <c r="C54" t="n">
-        <v>2.063079999917823</v>
+        <v>2.063079999931624</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B55" t="n">
-        <v>0.954775</v>
+        <v>0.8113</v>
       </c>
       <c r="C55" t="n">
-        <v>2.063079999947061</v>
+        <v>2.063079999948342</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.0772</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1241</v>
+        <v>0.9823</v>
       </c>
       <c r="C56" t="n">
-        <v>2.063080000031034</v>
+        <v>2.063079999957325</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.403</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1241</v>
+        <v>0.0772</v>
       </c>
       <c r="C57" t="n">
-        <v>2.063079999931952</v>
+        <v>2.063079999887909</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.58605</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1241</v>
+        <v>0.403</v>
       </c>
       <c r="C58" t="n">
-        <v>2.063079999889782</v>
+        <v>2.063079999904805</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8113</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1241</v>
+        <v>0.58605</v>
       </c>
       <c r="C59" t="n">
-        <v>2.063079999884249</v>
+        <v>2.06307999992777</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9823</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1241</v>
+        <v>0.8113</v>
       </c>
       <c r="C60" t="n">
-        <v>2.063079999895997</v>
+        <v>2.063079999944117</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.403</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1727</v>
+        <v>0.9823</v>
       </c>
       <c r="C61" t="n">
-        <v>2.063079999931653</v>
+        <v>2.063079999952369</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.58605</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1727</v>
+        <v>0.0772</v>
       </c>
       <c r="C62" t="n">
-        <v>2.063079999887709</v>
+        <v>2.06307999989399</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9823</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1727</v>
+        <v>0.403</v>
       </c>
       <c r="C63" t="n">
-        <v>2.063079999895582</v>
+        <v>2.063079999905571</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.0772</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B64" t="n">
-        <v>0.26915</v>
+        <v>0.58605</v>
       </c>
       <c r="C64" t="n">
-        <v>2.06308000005077</v>
+        <v>2.063079999924384</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.403</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B65" t="n">
-        <v>0.26915</v>
+        <v>0.8113</v>
       </c>
       <c r="C65" t="n">
-        <v>2.063079999936889</v>
+        <v>2.063079999940448</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.58605</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B66" t="n">
-        <v>0.26915</v>
+        <v>0.9823</v>
       </c>
       <c r="C66" t="n">
-        <v>2.063079999892258</v>
+        <v>2.063079999948496</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8113</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B67" t="n">
-        <v>0.26915</v>
+        <v>0.1241</v>
       </c>
       <c r="C67" t="n">
-        <v>2.063079999889948</v>
+        <v>2.063080000040932</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9823</v>
+        <v>0.2035</v>
       </c>
       <c r="B68" t="n">
-        <v>0.26915</v>
+        <v>0.1241</v>
       </c>
       <c r="C68" t="n">
-        <v>2.063079999897665</v>
+        <v>2.06307999999579</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.403</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3611</v>
+        <v>0.1241</v>
       </c>
       <c r="C69" t="n">
-        <v>2.063079999950245</v>
+        <v>2.063079999939345</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.58605</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3611</v>
+        <v>0.1241</v>
       </c>
       <c r="C70" t="n">
-        <v>2.063079999905785</v>
+        <v>2.063079999901734</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9823</v>
+        <v>0.9547750000000003</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3611</v>
+        <v>0.1241</v>
       </c>
       <c r="C71" t="n">
-        <v>2.063079999902841</v>
+        <v>2.06307999989466</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.0772</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B72" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C72" t="n">
-        <v>2.063080000089716</v>
+        <v>2.063080000047274</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.403</v>
+        <v>0.2035</v>
       </c>
       <c r="B73" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C73" t="n">
-        <v>2.063079999971892</v>
+        <v>2.063080000000857</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.58605</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B74" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C74" t="n">
-        <v>2.063079999923912</v>
+        <v>2.063079999939622</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8113</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B75" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C75" t="n">
-        <v>2.063079999911198</v>
+        <v>2.063079999900336</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9823</v>
+        <v>0.9547750000000003</v>
       </c>
       <c r="B76" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C76" t="n">
-        <v>2.063079999910145</v>
+        <v>2.063079999894305</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.403</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C77" t="n">
-        <v>2.063080000012297</v>
+        <v>2.063080000061489</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.58605</v>
+        <v>0.2035</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C78" t="n">
-        <v>2.063079999959249</v>
+        <v>2.063080000014017</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.8113</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C79" t="n">
-        <v>2.063079999935956</v>
+        <v>2.063079999946242</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9823</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C80" t="n">
-        <v>2.063079999928166</v>
+        <v>2.063079999903351</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.0772</v>
+        <v>0.9547750000000003</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.26915</v>
       </c>
       <c r="C81" t="n">
-        <v>2.063080000096438</v>
+        <v>2.063079999896669</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.403</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B82" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.3611</v>
       </c>
       <c r="C82" t="n">
-        <v>2.063080000011456</v>
+        <v>2.063080000078247</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.58605</v>
+        <v>0.2035</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.3611</v>
       </c>
       <c r="C83" t="n">
-        <v>2.063079999964484</v>
+        <v>2.063080000032148</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.8113</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.3611</v>
       </c>
       <c r="C84" t="n">
-        <v>2.063079999949709</v>
+        <v>2.063079999960237</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9823</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B85" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2.063079999914727</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.063079999902337</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.02450000000000001</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.063080000096666</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.2035</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.063080000054603</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.3782000000000001</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.063079999981458</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.5233000000000001</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.063079999934532</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.063079999910262</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.02450000000000001</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.063080000115353</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.2035</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.063080000081333</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.3782000000000001</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.06308000002142</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.5233000000000001</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.063079999974048</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.063079999929586</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.02450000000000001</v>
+      </c>
+      <c r="B97" t="n">
         <v>0.8969499999999999</v>
       </c>
-      <c r="C85" t="n">
-        <v>2.063079999942021</v>
+      <c r="C97" t="n">
+        <v>2.063080000102842</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.2035</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.063080000073181</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.3782000000000001</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2.063080000019247</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.5233000000000001</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2.063079999976588</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.063079999943263</v>
       </c>
     </row>
   </sheetData>
@@ -4270,7 +4974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4297,112 +5001,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0342</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C2" t="n">
-        <v>2.226501124513216</v>
+        <v>2.190955241825513</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0342</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C3" t="n">
-        <v>2.331303836779054</v>
+        <v>2.357467578243964</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0342</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5233</v>
+        <v>0.58605</v>
       </c>
       <c r="C4" t="n">
-        <v>2.506500789310628</v>
+        <v>2.56132909784906</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0245</v>
+        <v>0.8113</v>
       </c>
       <c r="C5" t="n">
-        <v>2.137724544169228</v>
+        <v>2.321324379663784</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2035</v>
+        <v>0.9823</v>
       </c>
       <c r="C6" t="n">
-        <v>2.2073008147417</v>
+        <v>2.231011681414461</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3782</v>
+        <v>0.0772</v>
       </c>
       <c r="C7" t="n">
-        <v>2.320258907497845</v>
+        <v>2.175686101026234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5233</v>
+        <v>0.403</v>
       </c>
       <c r="C8" t="n">
-        <v>2.567924135237001</v>
+        <v>2.353622933777113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B9" t="n">
-        <v>0.954775</v>
+        <v>0.58605</v>
       </c>
       <c r="C9" t="n">
-        <v>2.242146128414412</v>
+        <v>2.557820501188184</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1428</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2035</v>
+        <v>0.8113</v>
       </c>
       <c r="C10" t="n">
-        <v>2.161718579768639</v>
+        <v>2.322378863207667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1428</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3782</v>
+        <v>0.9823</v>
       </c>
       <c r="C11" t="n">
-        <v>2.283953605587226</v>
+        <v>2.230121879553643</v>
       </c>
     </row>
     <row r="12">
@@ -4410,10 +5114,10 @@
         <v>0.1428</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5233</v>
+        <v>0.0772</v>
       </c>
       <c r="C12" t="n">
-        <v>2.590541771728895</v>
+        <v>2.127542277592625</v>
       </c>
     </row>
     <row r="13">
@@ -4421,43 +5125,43 @@
         <v>0.1428</v>
       </c>
       <c r="B13" t="n">
-        <v>0.954775</v>
+        <v>0.403</v>
       </c>
       <c r="C13" t="n">
-        <v>2.238438149313466</v>
+        <v>2.321482747914386</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.18225</v>
+        <v>0.1428</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0245</v>
+        <v>0.58605</v>
       </c>
       <c r="C14" t="n">
-        <v>2.071489070296976</v>
+        <v>2.497533913264112</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.18225</v>
+        <v>0.1428</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2035</v>
+        <v>0.8113</v>
       </c>
       <c r="C15" t="n">
-        <v>2.114510628785234</v>
+        <v>2.319318800947983</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.18225</v>
+        <v>0.1428</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3782</v>
+        <v>0.9823</v>
       </c>
       <c r="C16" t="n">
-        <v>2.238704729602485</v>
+        <v>2.229352200823113</v>
       </c>
     </row>
     <row r="17">
@@ -4465,758 +5169,934 @@
         <v>0.18225</v>
       </c>
       <c r="B17" t="n">
-        <v>0.954775</v>
+        <v>0.0772</v>
       </c>
       <c r="C17" t="n">
-        <v>2.233464248143568</v>
+        <v>2.086256782811782</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0245</v>
+        <v>0.403</v>
       </c>
       <c r="C18" t="n">
-        <v>2.021527336716096</v>
+        <v>2.27487133754589</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2035</v>
+        <v>0.58605</v>
       </c>
       <c r="C19" t="n">
-        <v>2.034275502712575</v>
+        <v>2.440249124506527</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5233</v>
+        <v>0.8113</v>
       </c>
       <c r="C20" t="n">
-        <v>2.323503732210833</v>
+        <v>2.316192047833909</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B21" t="n">
-        <v>0.954775</v>
+        <v>0.9823</v>
       </c>
       <c r="C21" t="n">
-        <v>2.169672636163774</v>
+        <v>2.243749594408504</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0245</v>
+        <v>0.0772</v>
       </c>
       <c r="C22" t="n">
-        <v>1.869459410559928</v>
+        <v>2.023621565590635</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2035</v>
+        <v>0.403</v>
       </c>
       <c r="C23" t="n">
-        <v>1.736269334498696</v>
+        <v>2.177262407328023</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3782</v>
+        <v>0.58605</v>
       </c>
       <c r="C24" t="n">
-        <v>1.76623598629156</v>
+        <v>2.341284952550397</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5233</v>
+        <v>0.8113</v>
       </c>
       <c r="C25" t="n">
-        <v>2.023591505050506</v>
+        <v>2.276294656778037</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>0.954775</v>
+        <v>0.9823</v>
       </c>
       <c r="C26" t="n">
-        <v>1.901544846027557</v>
+        <v>2.167163348273237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4768</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C27" t="n">
-        <v>1.69931963089532</v>
+        <v>1.838057771390307</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4768</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C28" t="n">
-        <v>1.69408121578013</v>
+        <v>1.807467394194412</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4768</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>0.954775</v>
+        <v>0.58605</v>
       </c>
       <c r="C29" t="n">
-        <v>1.832174363974681</v>
+        <v>2.092206647999795</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.55415</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0245</v>
+        <v>0.8113</v>
       </c>
       <c r="C30" t="n">
-        <v>1.793444088774914</v>
+        <v>1.981827741733184</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.55415</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2035</v>
+        <v>0.9823</v>
       </c>
       <c r="C31" t="n">
-        <v>1.63248669780972</v>
+        <v>1.912786500640089</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.55415</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3782</v>
+        <v>0.0772</v>
       </c>
       <c r="C32" t="n">
-        <v>1.689010465916765</v>
+        <v>1.796478823990043</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.55415</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5233</v>
+        <v>0.403</v>
       </c>
       <c r="C33" t="n">
-        <v>1.935870835923227</v>
+        <v>1.732818180500278</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.5999</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0245</v>
+        <v>0.58605</v>
       </c>
       <c r="C34" t="n">
-        <v>1.775930587232044</v>
+        <v>2.072100021940008</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.5999</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2035</v>
+        <v>0.8113</v>
       </c>
       <c r="C35" t="n">
-        <v>1.557138466216281</v>
+        <v>1.92774821810033</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.5999</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3782</v>
+        <v>0.9823</v>
       </c>
       <c r="C36" t="n">
-        <v>1.731376368719614</v>
+        <v>1.85238090177191</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.5999</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5233</v>
+        <v>0.0772</v>
       </c>
       <c r="C37" t="n">
-        <v>1.919346582235673</v>
+        <v>1.746601618172376</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2035</v>
+        <v>0.403</v>
       </c>
       <c r="C38" t="n">
-        <v>1.598832692414084</v>
+        <v>1.708247485120043</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3782</v>
+        <v>0.58605</v>
       </c>
       <c r="C39" t="n">
-        <v>1.780434675160807</v>
+        <v>2.002155665527328</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5233</v>
+        <v>0.8113</v>
       </c>
       <c r="C40" t="n">
-        <v>1.925208887391977</v>
+        <v>1.848158267090787</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B41" t="n">
-        <v>0.954775</v>
+        <v>0.9823</v>
       </c>
       <c r="C41" t="n">
-        <v>1.875850372587548</v>
+        <v>1.80926086799774</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0245</v>
+        <v>0.0772</v>
       </c>
       <c r="C42" t="n">
-        <v>1.815399758790046</v>
+        <v>1.722202153963791</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2035</v>
+        <v>0.403</v>
       </c>
       <c r="C43" t="n">
-        <v>1.755804916198903</v>
+        <v>1.758849541938248</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3782</v>
+        <v>0.58605</v>
       </c>
       <c r="C44" t="n">
-        <v>1.853971956008259</v>
+        <v>1.970407401679126</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B45" t="n">
-        <v>0.954775</v>
+        <v>0.8113</v>
       </c>
       <c r="C45" t="n">
-        <v>1.940164723451634</v>
+        <v>1.847160406463205</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.85185</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0245</v>
+        <v>0.9823</v>
       </c>
       <c r="C46" t="n">
-        <v>1.91726726458631</v>
+        <v>1.841740159086293</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C47" t="n">
-        <v>1.87540601512761</v>
+        <v>1.688436523634337</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B48" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C48" t="n">
-        <v>1.919283924140429</v>
+        <v>1.806134828875232</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5233</v>
+        <v>0.58605</v>
       </c>
       <c r="C49" t="n">
-        <v>2.016416469969325</v>
+        <v>1.963861868988226</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B50" t="n">
-        <v>0.954775</v>
+        <v>0.8113</v>
       </c>
       <c r="C50" t="n">
-        <v>1.982578255860592</v>
+        <v>1.897777571177559</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.93315</v>
+        <v>0.66415</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0245</v>
+        <v>0.9823</v>
       </c>
       <c r="C51" t="n">
-        <v>2.015323899362615</v>
+        <v>1.886499452901231</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C52" t="n">
-        <v>1.954235661373677</v>
+        <v>1.766871690589854</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C53" t="n">
-        <v>1.96124793241348</v>
+        <v>1.873248931438165</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5233</v>
+        <v>0.58605</v>
       </c>
       <c r="C54" t="n">
-        <v>2.019130703121163</v>
+        <v>2.009688328530583</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B55" t="n">
-        <v>0.954775</v>
+        <v>0.8113</v>
       </c>
       <c r="C55" t="n">
-        <v>2.005348592426284</v>
+        <v>1.967566021738661</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.0772</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1241</v>
+        <v>0.9823</v>
       </c>
       <c r="C56" t="n">
-        <v>2.218317135592689</v>
+        <v>1.941887694232756</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.403</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1241</v>
+        <v>0.0772</v>
       </c>
       <c r="C57" t="n">
-        <v>1.823831985750723</v>
+        <v>1.902959186409014</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.58605</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1241</v>
+        <v>0.403</v>
       </c>
       <c r="C58" t="n">
-        <v>1.680578946861308</v>
+        <v>1.932248921119978</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8113</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1241</v>
+        <v>0.58605</v>
       </c>
       <c r="C59" t="n">
-        <v>1.831880686685249</v>
+        <v>2.056467959622005</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9823</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1241</v>
+        <v>0.8113</v>
       </c>
       <c r="C60" t="n">
-        <v>2.040371123358963</v>
+        <v>2.022590788272558</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.403</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1727</v>
+        <v>0.9823</v>
       </c>
       <c r="C61" t="n">
-        <v>1.778936059063299</v>
+        <v>1.980677276217101</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.58605</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1727</v>
+        <v>0.0772</v>
       </c>
       <c r="C62" t="n">
-        <v>1.622964872480193</v>
+        <v>2.028860621110879</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9823</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1727</v>
+        <v>0.403</v>
       </c>
       <c r="C63" t="n">
-        <v>2.000459006220967</v>
+        <v>1.96902731256903</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.0772</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B64" t="n">
-        <v>0.26915</v>
+        <v>0.58605</v>
       </c>
       <c r="C64" t="n">
-        <v>2.232250570415685</v>
+        <v>2.046781629357909</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.403</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B65" t="n">
-        <v>0.26915</v>
+        <v>0.8113</v>
       </c>
       <c r="C65" t="n">
-        <v>1.744345566711114</v>
+        <v>2.043118028998733</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.58605</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B66" t="n">
-        <v>0.26915</v>
+        <v>0.9823</v>
       </c>
       <c r="C66" t="n">
-        <v>1.617568704101675</v>
+        <v>2.002516244131656</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8113</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B67" t="n">
-        <v>0.26915</v>
+        <v>0.1241</v>
       </c>
       <c r="C67" t="n">
-        <v>1.840766505813429</v>
+        <v>2.212736145468227</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9823</v>
+        <v>0.2035</v>
       </c>
       <c r="B68" t="n">
-        <v>0.26915</v>
+        <v>0.1241</v>
       </c>
       <c r="C68" t="n">
-        <v>1.972361639225487</v>
+        <v>2.072562727581187</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.403</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3611</v>
+        <v>0.1241</v>
       </c>
       <c r="C69" t="n">
-        <v>1.779871952931698</v>
+        <v>1.850521047614598</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.58605</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3611</v>
+        <v>0.1241</v>
       </c>
       <c r="C70" t="n">
-        <v>1.703979140468893</v>
+        <v>1.724700297698859</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9823</v>
+        <v>0.9547750000000003</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3611</v>
+        <v>0.1241</v>
       </c>
       <c r="C71" t="n">
-        <v>1.976827611352888</v>
+        <v>2.020385123423946</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.0772</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B72" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C72" t="n">
-        <v>2.433004211687297</v>
+        <v>2.22190360162152</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.403</v>
+        <v>0.2035</v>
       </c>
       <c r="B73" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C73" t="n">
-        <v>1.927224499429498</v>
+        <v>2.080511720648901</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.58605</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B74" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C74" t="n">
-        <v>1.817779828171676</v>
+        <v>1.810154259305203</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8113</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B75" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C75" t="n">
-        <v>1.943485146575317</v>
+        <v>1.684014176595817</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9823</v>
+        <v>0.9547750000000003</v>
       </c>
       <c r="B76" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C76" t="n">
-        <v>1.998287164303588</v>
+        <v>1.983376332348583</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.403</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C77" t="n">
-        <v>2.140138667811638</v>
+        <v>2.252415995865523</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.58605</v>
+        <v>0.2035</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C78" t="n">
-        <v>1.984591535836252</v>
+        <v>2.110747262923452</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.8113</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C79" t="n">
-        <v>2.047995045166493</v>
+        <v>1.794497559060975</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9823</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C80" t="n">
-        <v>2.060010348390397</v>
+        <v>1.640688261662683</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.0772</v>
+        <v>0.9547750000000003</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.26915</v>
       </c>
       <c r="C81" t="n">
-        <v>2.270761749509604</v>
+        <v>1.957957827056003</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.403</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B82" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.3611</v>
       </c>
       <c r="C82" t="n">
-        <v>1.935329164430459</v>
+        <v>2.315741288488536</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.58605</v>
+        <v>0.2035</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.3611</v>
       </c>
       <c r="C83" t="n">
-        <v>1.753344862142884</v>
+        <v>2.187253247446208</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.8113</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.3611</v>
       </c>
       <c r="C84" t="n">
-        <v>1.973793859732561</v>
+        <v>1.834732687943929</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9823</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B85" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.662261977184434</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.966157598857494</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.02450000000000001</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.411241597233134</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.2035</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.324082634941218</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.3782000000000001</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.965208141187631</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.5233000000000001</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.799444003126375</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.99261736499135</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.02450000000000001</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.449154951973645</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.2035</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.380099075203655</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.3782000000000001</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.173721658024437</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.5233000000000001</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.026612419129093</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.068755255351177</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.02450000000000001</v>
+      </c>
+      <c r="B97" t="n">
         <v>0.8969499999999999</v>
       </c>
-      <c r="C85" t="n">
-        <v>2.022577197168432</v>
+      <c r="C97" t="n">
+        <v>2.272437690866852</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.2035</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.226223647891029</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.3782000000000001</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.961126501323862</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.5233000000000001</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.780723111891757</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.018999815549139</v>
       </c>
     </row>
   </sheetData>
@@ -5230,7 +6110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5257,112 +6137,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0342</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C2" t="n">
-        <v>2.363705066184486</v>
+        <v>2.314903370836391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0342</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C3" t="n">
-        <v>2.563267257206667</v>
+        <v>2.630139799917863</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0342</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5233</v>
+        <v>0.58605</v>
       </c>
       <c r="C4" t="n">
-        <v>3.025906070232015</v>
+        <v>3.12587337776874</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0245</v>
+        <v>0.8113</v>
       </c>
       <c r="C5" t="n">
-        <v>2.265373769282263</v>
+        <v>2.425753370984659</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.03420000000000001</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2035</v>
+        <v>0.9823</v>
       </c>
       <c r="C6" t="n">
-        <v>2.386258935087334</v>
+        <v>2.23804494515378</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3782</v>
+        <v>0.0772</v>
       </c>
       <c r="C7" t="n">
-        <v>2.600594677457076</v>
+        <v>2.342215663168058</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5233</v>
+        <v>0.403</v>
       </c>
       <c r="C8" t="n">
-        <v>3.166466583733175</v>
+        <v>2.68391003132938</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B9" t="n">
-        <v>0.954775</v>
+        <v>0.58605</v>
       </c>
       <c r="C9" t="n">
-        <v>2.355095589255414</v>
+        <v>3.19270157498267</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1428</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2035</v>
+        <v>0.8113</v>
       </c>
       <c r="C10" t="n">
-        <v>2.330472289067541</v>
+        <v>2.488022824512517</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1428</v>
+        <v>0.08790000000000002</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3782</v>
+        <v>0.9823</v>
       </c>
       <c r="C11" t="n">
-        <v>2.565383598345694</v>
+        <v>2.338592261427071</v>
       </c>
     </row>
     <row r="12">
@@ -5370,10 +6250,10 @@
         <v>0.1428</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5233</v>
+        <v>0.0772</v>
       </c>
       <c r="C12" t="n">
-        <v>3.185438472708539</v>
+        <v>2.293816912721969</v>
       </c>
     </row>
     <row r="13">
@@ -5381,43 +6261,43 @@
         <v>0.1428</v>
       </c>
       <c r="B13" t="n">
-        <v>0.954775</v>
+        <v>0.403</v>
       </c>
       <c r="C13" t="n">
-        <v>2.454148687069097</v>
+        <v>2.658194742670331</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.18225</v>
+        <v>0.1428</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0245</v>
+        <v>0.58605</v>
       </c>
       <c r="C14" t="n">
-        <v>2.19336225276597</v>
+        <v>3.093775523333694</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.18225</v>
+        <v>0.1428</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2035</v>
+        <v>0.8113</v>
       </c>
       <c r="C15" t="n">
-        <v>2.241834961347674</v>
+        <v>2.520990984074237</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.18225</v>
+        <v>0.1428</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3782</v>
+        <v>0.9823</v>
       </c>
       <c r="C16" t="n">
-        <v>2.483517828618376</v>
+        <v>2.45222336338543</v>
       </c>
     </row>
     <row r="17">
@@ -5425,758 +6305,934 @@
         <v>0.18225</v>
       </c>
       <c r="B17" t="n">
-        <v>0.954775</v>
+        <v>0.0772</v>
       </c>
       <c r="C17" t="n">
-        <v>2.499919843663081</v>
+        <v>2.224984125530141</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0245</v>
+        <v>0.403</v>
       </c>
       <c r="C18" t="n">
-        <v>2.109765694910278</v>
+        <v>2.574434182570689</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2035</v>
+        <v>0.58605</v>
       </c>
       <c r="C19" t="n">
-        <v>2.070627416736835</v>
+        <v>2.987738109461255</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5233</v>
+        <v>0.8113</v>
       </c>
       <c r="C20" t="n">
-        <v>2.748743376531634</v>
+        <v>2.515496273673404</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.24025</v>
+        <v>0.18225</v>
       </c>
       <c r="B21" t="n">
-        <v>0.954775</v>
+        <v>0.9823</v>
       </c>
       <c r="C21" t="n">
-        <v>2.349407575815704</v>
+        <v>2.541322385622447</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0245</v>
+        <v>0.0772</v>
       </c>
       <c r="C22" t="n">
-        <v>1.781729228529051</v>
+        <v>2.104750554673444</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2035</v>
+        <v>0.403</v>
       </c>
       <c r="C23" t="n">
-        <v>1.338785684008321</v>
+        <v>2.363305012647843</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3782</v>
+        <v>0.58605</v>
       </c>
       <c r="C24" t="n">
-        <v>1.285144798856328</v>
+        <v>2.791010078015113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5233</v>
+        <v>0.8113</v>
       </c>
       <c r="C25" t="n">
-        <v>2.129399877627368</v>
+        <v>2.428715416161405</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4228</v>
+        <v>0.2402500000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>0.954775</v>
+        <v>0.9823</v>
       </c>
       <c r="C26" t="n">
-        <v>1.562224068097517</v>
+        <v>2.370834724644538</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4768</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C27" t="n">
-        <v>1.132196375920901</v>
+        <v>1.667720768094362</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4768</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C28" t="n">
-        <v>1.069882250502086</v>
+        <v>1.427573225607867</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4768</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>0.954775</v>
+        <v>0.58605</v>
       </c>
       <c r="C29" t="n">
-        <v>1.352942171771912</v>
+        <v>2.322199092385102</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.55415</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0245</v>
+        <v>0.8113</v>
       </c>
       <c r="C30" t="n">
-        <v>1.544289110026509</v>
+        <v>1.72447122975825</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.55415</v>
+        <v>0.4228000000000001</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2035</v>
+        <v>0.9823</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8819307205284183</v>
+        <v>1.606942287481995</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.55415</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3782</v>
+        <v>0.0772</v>
       </c>
       <c r="C32" t="n">
-        <v>1.093405055991572</v>
+        <v>1.531560761524644</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.55415</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5233</v>
+        <v>0.403</v>
       </c>
       <c r="C33" t="n">
-        <v>2.004386911991635</v>
+        <v>1.216031210155195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.5999</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0245</v>
+        <v>0.58605</v>
       </c>
       <c r="C34" t="n">
-        <v>1.482934470064921</v>
+        <v>2.312735217708877</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.5999</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2035</v>
+        <v>0.8113</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7189831607418965</v>
+        <v>1.555799035524051</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.5999</v>
+        <v>0.4768000000000001</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3782</v>
+        <v>0.9823</v>
       </c>
       <c r="C36" t="n">
-        <v>1.238927522030381</v>
+        <v>1.424460162232883</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.5999</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5233</v>
+        <v>0.0772</v>
       </c>
       <c r="C37" t="n">
-        <v>1.960003311985058</v>
+        <v>1.348145997933891</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2035</v>
+        <v>0.403</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8454414113224303</v>
+        <v>1.201864833424754</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3782</v>
+        <v>0.58605</v>
       </c>
       <c r="C39" t="n">
-        <v>1.449760015367086</v>
+        <v>2.182577023795563</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5233</v>
+        <v>0.8113</v>
       </c>
       <c r="C40" t="n">
-        <v>1.989980057550932</v>
+        <v>1.3396203584936</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.66415</v>
+        <v>0.5541500000000001</v>
       </c>
       <c r="B41" t="n">
-        <v>0.954775</v>
+        <v>0.9823</v>
       </c>
       <c r="C41" t="n">
-        <v>1.52916021506036</v>
+        <v>1.31039149299211</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0245</v>
+        <v>0.0772</v>
       </c>
       <c r="C42" t="n">
-        <v>1.678902193123905</v>
+        <v>1.258768348914398</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2035</v>
+        <v>0.403</v>
       </c>
       <c r="C43" t="n">
-        <v>1.409375624979967</v>
+        <v>1.353190598323351</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3782</v>
+        <v>0.58605</v>
       </c>
       <c r="C44" t="n">
-        <v>1.768053069970853</v>
+        <v>2.104402345525584</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7583</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B45" t="n">
-        <v>0.954775</v>
+        <v>0.8113</v>
       </c>
       <c r="C45" t="n">
-        <v>1.84822228740364</v>
+        <v>1.376392254173006</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.85185</v>
+        <v>0.5999000000000001</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0245</v>
+        <v>0.9823</v>
       </c>
       <c r="C46" t="n">
-        <v>2.105359169698384</v>
+        <v>1.392538570627941</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C47" t="n">
-        <v>1.917453673604611</v>
+        <v>1.178079648420267</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B48" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C48" t="n">
-        <v>2.03189644647972</v>
+        <v>1.550719558462544</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5233</v>
+        <v>0.58605</v>
       </c>
       <c r="C49" t="n">
-        <v>2.301772734198174</v>
+        <v>2.099209073407558</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.85185</v>
+        <v>0.66415</v>
       </c>
       <c r="B50" t="n">
-        <v>0.954775</v>
+        <v>0.8113</v>
       </c>
       <c r="C50" t="n">
-        <v>2.057721367754315</v>
+        <v>1.623400704009387</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.93315</v>
+        <v>0.66415</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0245</v>
+        <v>0.9823</v>
       </c>
       <c r="C51" t="n">
-        <v>2.470731904643684</v>
+        <v>1.579622134193097</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2035</v>
+        <v>0.0772</v>
       </c>
       <c r="C52" t="n">
-        <v>2.231394435694454</v>
+        <v>1.497197864844246</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3782</v>
+        <v>0.403</v>
       </c>
       <c r="C53" t="n">
-        <v>2.179785983783646</v>
+        <v>1.836871093109621</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5233</v>
+        <v>0.58605</v>
       </c>
       <c r="C54" t="n">
-        <v>2.334677114397678</v>
+        <v>2.249762590864286</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.93315</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B55" t="n">
-        <v>0.954775</v>
+        <v>0.8113</v>
       </c>
       <c r="C55" t="n">
-        <v>2.15438714818306</v>
+        <v>1.989661421370267</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.0772</v>
+        <v>0.7583000000000002</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1241</v>
+        <v>0.9823</v>
       </c>
       <c r="C56" t="n">
-        <v>2.406498192920074</v>
+        <v>1.855414931640385</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.403</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1241</v>
+        <v>0.0772</v>
       </c>
       <c r="C57" t="n">
-        <v>1.61590905622507</v>
+        <v>2.049539372980216</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.58605</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1241</v>
+        <v>0.403</v>
       </c>
       <c r="C58" t="n">
-        <v>1.083964565712836</v>
+        <v>2.071220566971999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8113</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1241</v>
+        <v>0.58605</v>
       </c>
       <c r="C59" t="n">
-        <v>1.74892474303182</v>
+        <v>2.407686366329722</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9823</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1241</v>
+        <v>0.8113</v>
       </c>
       <c r="C60" t="n">
-        <v>2.545392471192744</v>
+        <v>2.252579220428232</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.403</v>
+        <v>0.8518500000000002</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1727</v>
+        <v>0.9823</v>
       </c>
       <c r="C61" t="n">
-        <v>1.501868744888329</v>
+        <v>2.045397746122062</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.58605</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1727</v>
+        <v>0.0772</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8770780149541734</v>
+        <v>2.502430375914036</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9823</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1727</v>
+        <v>0.403</v>
       </c>
       <c r="C63" t="n">
-        <v>2.404332352784131</v>
+        <v>2.198415996802816</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.0772</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B64" t="n">
-        <v>0.26915</v>
+        <v>0.58605</v>
       </c>
       <c r="C64" t="n">
-        <v>2.396692796096619</v>
+        <v>2.416794353998676</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.403</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B65" t="n">
-        <v>0.26915</v>
+        <v>0.8113</v>
       </c>
       <c r="C65" t="n">
-        <v>1.251235964487253</v>
+        <v>2.340451315999744</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.58605</v>
+        <v>0.9331500000000003</v>
       </c>
       <c r="B66" t="n">
-        <v>0.26915</v>
+        <v>0.9823</v>
       </c>
       <c r="C66" t="n">
-        <v>0.819251664852176</v>
+        <v>2.136948935850015</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8113</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B67" t="n">
-        <v>0.26915</v>
+        <v>0.1241</v>
       </c>
       <c r="C67" t="n">
-        <v>1.752835378603289</v>
+        <v>2.342910898562411</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9823</v>
+        <v>0.2035</v>
       </c>
       <c r="B68" t="n">
-        <v>0.26915</v>
+        <v>0.1241</v>
       </c>
       <c r="C68" t="n">
-        <v>2.25429098863437</v>
+        <v>2.192367498307169</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.403</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3611</v>
+        <v>0.1241</v>
       </c>
       <c r="C69" t="n">
-        <v>1.319993157794227</v>
+        <v>1.693191639107172</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.58605</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3611</v>
+        <v>0.1241</v>
       </c>
       <c r="C70" t="n">
-        <v>1.12498632677609</v>
+        <v>1.248684692028992</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9823</v>
+        <v>0.9547750000000003</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3611</v>
+        <v>0.1241</v>
       </c>
       <c r="C71" t="n">
-        <v>2.227646112316721</v>
+        <v>2.483294274363237</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.0772</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B72" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C72" t="n">
-        <v>2.868488627980229</v>
+        <v>2.35337484634973</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.403</v>
+        <v>0.2035</v>
       </c>
       <c r="B73" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C73" t="n">
-        <v>1.800351259414656</v>
+        <v>2.18853993667357</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.58605</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B74" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C74" t="n">
-        <v>1.587166959977038</v>
+        <v>1.596766827527425</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8113</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B75" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C75" t="n">
-        <v>2.088467142501512</v>
+        <v>1.076113666810623</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9823</v>
+        <v>0.9547750000000003</v>
       </c>
       <c r="B76" t="n">
-        <v>0.452</v>
+        <v>0.1727</v>
       </c>
       <c r="C76" t="n">
-        <v>2.27075403819922</v>
+        <v>2.349167722421713</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.403</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C77" t="n">
-        <v>2.372012992515687</v>
+        <v>2.380263377263763</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.58605</v>
+        <v>0.2035</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C78" t="n">
-        <v>2.069925422198373</v>
+        <v>2.202830694237239</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.8113</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C79" t="n">
-        <v>2.38455265567204</v>
+        <v>1.403319783462298</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9823</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6507000000000001</v>
+        <v>0.26915</v>
       </c>
       <c r="C80" t="n">
-        <v>2.440690161782478</v>
+        <v>0.8656265022316838</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.0772</v>
+        <v>0.9547750000000003</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.26915</v>
       </c>
       <c r="C81" t="n">
-        <v>2.373496557463548</v>
+        <v>2.21029779510143</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.403</v>
+        <v>0.02450000000000001</v>
       </c>
       <c r="B82" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.3611</v>
       </c>
       <c r="C82" t="n">
-        <v>1.605955247433435</v>
+        <v>2.512282671970723</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.58605</v>
+        <v>0.2035</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.3611</v>
       </c>
       <c r="C83" t="n">
-        <v>1.069929325723325</v>
+        <v>2.367787200183975</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.8113</v>
+        <v>0.3782000000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8969499999999999</v>
+        <v>0.3611</v>
       </c>
       <c r="C84" t="n">
-        <v>2.020034340842503</v>
+        <v>1.482940863654764</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9823</v>
+        <v>0.5233000000000001</v>
       </c>
       <c r="B85" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.973630654754138</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.198744984436431</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.02450000000000001</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.761107372979783</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.2035</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.711055876299135</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.3782000000000001</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.897310143514835</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.5233000000000001</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.516158087652099</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.259644858447619</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.02450000000000001</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.841356071097748</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.2035</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.825223877772754</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.3782000000000001</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.437304995482444</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.5233000000000001</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.156542686848888</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.474987536444462</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.02450000000000001</v>
+      </c>
+      <c r="B97" t="n">
         <v>0.8969499999999999</v>
       </c>
-      <c r="C85" t="n">
-        <v>2.230427927390734</v>
+      <c r="C97" t="n">
+        <v>2.298520717017163</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.2035</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.403858774437377</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.3782000000000001</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.6913940893479</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.5233000000000001</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.128592095631119</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.9547750000000003</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.221117500279434</v>
       </c>
     </row>
   </sheetData>
